--- a/FCX.xlsx
+++ b/FCX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konst\Development\valuations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB92795-5F93-4E59-88AE-AE199EBFB1F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF26B9E-D153-4325-A46F-CC7892A02538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="21015" windowHeight="20985" tabRatio="767" activeTab="3" xr2:uid="{A454576F-BA0E-4C95-85A1-1E0F525C6E61}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19020" windowHeight="20985" tabRatio="767" activeTab="3" xr2:uid="{A454576F-BA0E-4C95-85A1-1E0F525C6E61}"/>
   </bookViews>
   <sheets>
     <sheet name="Disclaimer" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="99">
   <si>
     <r>
       <t xml:space="preserve">This Excel file is intended </t>
@@ -658,7 +658,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -732,6 +732,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -769,7 +770,10 @@
     </xf>
     <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="1" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="1" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="1" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="1" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1374,10 +1378,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:AE750"/>
+  <dimension ref="A1:AF750"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -1385,46 +1389,50 @@
     <col min="1" max="3" width="9.140625" style="4" customWidth="1" outlineLevel="1"/>
     <col min="4" max="4" width="2.28515625" customWidth="1"/>
     <col min="5" max="5" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.85546875" customWidth="1"/>
+    <col min="6" max="10" width="8.85546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="2.85546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="17" width="8.85546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="8.85546875" customWidth="1" collapsed="1"/>
+    <col min="19" max="20" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:31" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:32" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B1" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:31" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:32" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B2" s="11" t="b">
         <f>AND(C:C)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:32" x14ac:dyDescent="0.2">
       <c r="D3" s="2" t="str">
         <f ca="1">MID(CELL("filename",D3),FIND("]",CELL("filename",D3))+1,256)</f>
         <v>Historical</v>
       </c>
     </row>
-    <row r="4" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:32" x14ac:dyDescent="0.2">
       <c r="D4" s="3" t="str">
         <f>Input!$A$2</f>
         <v>Indicative valuation of Freeport-McMoRan Inc.: Public information</v>
       </c>
     </row>
-    <row r="5" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:32" x14ac:dyDescent="0.2">
       <c r="D5" s="3" t="str">
         <f>Input!$A$3</f>
         <v>Educational purposes only, no financial advice</v>
       </c>
     </row>
-    <row r="8" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:32" x14ac:dyDescent="0.2">
       <c r="E8" s="2" t="str">
         <f>Input!$E$8&amp;" - P&amp;L"</f>
         <v>FCX - P&amp;L</v>
       </c>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:32" x14ac:dyDescent="0.2">
       <c r="E9" s="6" t="str">
         <f>+Input!$E$14</f>
         <v>$mn</v>
@@ -1471,250 +1479,262 @@
       <c r="T9" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="U9" s="34" t="s">
+      <c r="U9" s="25" t="s">
         <v>69</v>
       </c>
       <c r="V9" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="W9" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="W9" s="34" t="s">
+      <c r="X9" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="X9" s="34" t="s">
+      <c r="Y9" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="Y9" s="34" t="s">
+      <c r="Z9" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="Z9" s="34" t="s">
+      <c r="AA9" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="AA9" s="34" t="s">
+      <c r="AB9" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="AB9" s="34" t="s">
+      <c r="AC9" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="AC9" s="34" t="s">
+      <c r="AD9" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="AD9" s="34" t="s">
+      <c r="AE9" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="AE9" s="34" t="s">
+      <c r="AF9" s="34" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="2:31" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:32" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="2:32" x14ac:dyDescent="0.2">
       <c r="E11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="44">
+      <c r="F11" s="45">
         <v>14198</v>
       </c>
-      <c r="G11" s="44">
+      <c r="G11" s="45">
         <v>22845</v>
       </c>
-      <c r="H11" s="44">
+      <c r="H11" s="45">
         <v>22780</v>
       </c>
-      <c r="I11" s="44">
+      <c r="I11" s="45">
         <v>22855</v>
       </c>
-      <c r="J11" s="44">
+      <c r="J11" s="45">
         <v>25455</v>
       </c>
-      <c r="K11" s="43"/>
-      <c r="L11" s="44">
+      <c r="K11" s="44"/>
+      <c r="L11" s="45">
         <v>5389</v>
       </c>
-      <c r="M11" s="44">
+      <c r="M11" s="45">
         <v>5737</v>
       </c>
-      <c r="N11" s="44">
+      <c r="N11" s="45">
         <v>5824</v>
       </c>
-      <c r="O11" s="48">
+      <c r="O11" s="49">
         <f>I11-SUM(L11:N11)</f>
         <v>5905</v>
       </c>
-      <c r="P11" s="44">
+      <c r="P11" s="45">
         <v>6321</v>
       </c>
-      <c r="Q11" s="44">
+      <c r="Q11" s="45">
         <v>6624</v>
       </c>
-      <c r="R11" s="44">
+      <c r="R11" s="45">
         <v>6790</v>
       </c>
-      <c r="S11" s="48">
+      <c r="S11" s="49">
         <f>J11-SUM(P11:R11)</f>
         <v>5720</v>
       </c>
-      <c r="T11" s="44">
+      <c r="T11" s="45">
         <v>5728</v>
       </c>
-      <c r="U11" s="13">
+      <c r="U11" s="45">
+        <v>7582</v>
+      </c>
+      <c r="V11" s="45">
         <v>7191</v>
       </c>
-      <c r="V11" s="13">
+      <c r="W11" s="45">
         <v>7637</v>
       </c>
-      <c r="W11" s="13">
+      <c r="X11" s="45">
         <v>7579</v>
       </c>
-      <c r="X11" s="13">
+      <c r="Y11" s="45">
         <v>7372</v>
       </c>
-      <c r="Y11" s="13">
+      <c r="Z11" s="45">
         <v>7991</v>
       </c>
-      <c r="Z11" s="13">
+      <c r="AA11" s="45">
         <v>8369</v>
       </c>
-      <c r="AA11" s="13">
+      <c r="AB11" s="45">
         <v>8713</v>
       </c>
-      <c r="AB11" s="13">
+      <c r="AC11" s="45">
         <v>8159</v>
       </c>
-      <c r="AC11" s="13">
+      <c r="AD11" s="45">
         <v>8206</v>
       </c>
-      <c r="AD11" s="13">
+      <c r="AE11" s="45">
         <v>8251</v>
       </c>
-      <c r="AE11" s="13">
+      <c r="AF11" s="45">
         <v>8212</v>
       </c>
     </row>
-    <row r="12" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:32" x14ac:dyDescent="0.2">
       <c r="E12" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F12" s="45">
+      <c r="F12" s="46">
         <f>-10031-96</f>
         <v>-10127</v>
       </c>
-      <c r="G12" s="45">
+      <c r="G12" s="46">
         <f>-12016-16</f>
         <v>-12032</v>
       </c>
-      <c r="H12" s="45">
+      <c r="H12" s="46">
         <v>-13070</v>
       </c>
-      <c r="I12" s="45">
+      <c r="I12" s="46">
         <v>-13627</v>
       </c>
-      <c r="J12" s="45">
+      <c r="J12" s="46">
         <v>-15554</v>
       </c>
-      <c r="K12" s="43"/>
-      <c r="L12" s="45">
+      <c r="K12" s="44"/>
+      <c r="L12" s="46">
         <v>-3165</v>
       </c>
-      <c r="M12" s="45">
+      <c r="M12" s="46">
         <v>-3549</v>
       </c>
-      <c r="N12" s="45">
+      <c r="N12" s="46">
         <v>-3553</v>
       </c>
-      <c r="O12" s="49">
+      <c r="O12" s="50">
         <f>I12-SUM(L12:N12)</f>
         <v>-3360</v>
       </c>
-      <c r="P12" s="45">
+      <c r="P12" s="46">
         <v>-3844</v>
       </c>
-      <c r="Q12" s="45">
+      <c r="Q12" s="46">
         <v>-3875</v>
       </c>
-      <c r="R12" s="45">
+      <c r="R12" s="46">
         <v>-4077</v>
       </c>
-      <c r="S12" s="49">
+      <c r="S12" s="50">
         <f t="shared" ref="S12:S13" si="0">J12-SUM(P12:R12)</f>
         <v>-3758</v>
       </c>
-      <c r="T12" s="45">
+      <c r="T12" s="46">
         <v>-3756</v>
       </c>
-      <c r="U12" s="59"/>
-      <c r="V12" s="59"/>
-      <c r="W12" s="59"/>
-      <c r="X12" s="59"/>
-      <c r="Y12" s="59"/>
-      <c r="Z12" s="59"/>
-      <c r="AA12" s="59"/>
-      <c r="AB12" s="59"/>
-      <c r="AC12" s="60"/>
-      <c r="AD12" s="60"/>
-      <c r="AE12" s="60"/>
-    </row>
-    <row r="13" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="U12" s="46">
+        <v>-4282</v>
+      </c>
+      <c r="V12" s="61"/>
+      <c r="W12" s="61"/>
+      <c r="X12" s="61"/>
+      <c r="Y12" s="61"/>
+      <c r="Z12" s="61"/>
+      <c r="AA12" s="61"/>
+      <c r="AB12" s="61"/>
+      <c r="AC12" s="61"/>
+      <c r="AD12" s="62"/>
+      <c r="AE12" s="62"/>
+      <c r="AF12" s="62"/>
+    </row>
+    <row r="13" spans="2:32" x14ac:dyDescent="0.2">
       <c r="E13" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="46">
+      <c r="F13" s="47">
         <v>-1528</v>
       </c>
-      <c r="G13" s="46">
+      <c r="G13" s="47">
         <v>-1998</v>
       </c>
-      <c r="H13" s="46">
+      <c r="H13" s="47">
         <v>-2019</v>
       </c>
-      <c r="I13" s="46">
+      <c r="I13" s="47">
         <v>-2068</v>
       </c>
-      <c r="J13" s="46">
+      <c r="J13" s="47">
         <v>-2241</v>
       </c>
-      <c r="K13" s="43"/>
-      <c r="L13" s="46">
+      <c r="K13" s="44"/>
+      <c r="L13" s="47">
         <v>-399</v>
       </c>
-      <c r="M13" s="46">
+      <c r="M13" s="47">
         <v>-547</v>
       </c>
-      <c r="N13" s="46">
+      <c r="N13" s="47">
         <v>-533</v>
       </c>
-      <c r="O13" s="50">
+      <c r="O13" s="51">
         <f>I13-SUM(L13:N13)</f>
         <v>-589</v>
       </c>
-      <c r="P13" s="46">
+      <c r="P13" s="47">
         <v>-595</v>
       </c>
-      <c r="Q13" s="46">
+      <c r="Q13" s="47">
         <v>-509</v>
       </c>
-      <c r="R13" s="46">
+      <c r="R13" s="47">
         <v>-600</v>
       </c>
-      <c r="S13" s="50">
+      <c r="S13" s="51">
         <f t="shared" si="0"/>
         <v>-537</v>
       </c>
-      <c r="T13" s="46">
+      <c r="T13" s="47">
         <v>-466</v>
       </c>
-      <c r="U13" s="59"/>
-      <c r="V13" s="59"/>
-      <c r="W13" s="59"/>
-      <c r="X13" s="59"/>
-      <c r="Y13" s="59"/>
-      <c r="Z13" s="59"/>
-      <c r="AA13" s="59"/>
-      <c r="AB13" s="59"/>
-      <c r="AC13" s="59"/>
-      <c r="AD13" s="59"/>
-      <c r="AE13" s="59"/>
-    </row>
-    <row r="14" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="E14" s="36" t="s">
+      <c r="U13" s="47">
+        <v>-668</v>
+      </c>
+      <c r="V13" s="61"/>
+      <c r="W13" s="61"/>
+      <c r="X13" s="61"/>
+      <c r="Y13" s="61"/>
+      <c r="Z13" s="61"/>
+      <c r="AA13" s="61"/>
+      <c r="AB13" s="61"/>
+      <c r="AC13" s="61"/>
+      <c r="AD13" s="61"/>
+      <c r="AE13" s="61"/>
+      <c r="AF13" s="61"/>
+    </row>
+    <row r="14" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="E14" s="37" t="s">
         <v>88</v>
       </c>
       <c r="F14" s="14">
@@ -1749,7 +1769,7 @@
         <f t="shared" ref="N14" si="7">SUM(N12:N13)</f>
         <v>-4086</v>
       </c>
-      <c r="O14" s="50">
+      <c r="O14" s="51">
         <f>SUM(O12:O13)</f>
         <v>-3949</v>
       </c>
@@ -1765,27 +1785,31 @@
         <f t="shared" ref="R14" si="10">SUM(R12:R13)</f>
         <v>-4677</v>
       </c>
-      <c r="S14" s="50">
+      <c r="S14" s="51">
         <f t="shared" ref="S14" si="11">SUM(S12:S13)</f>
         <v>-4295</v>
       </c>
       <c r="T14" s="14">
-        <f t="shared" ref="T14" si="12">SUM(T12:T13)</f>
+        <f t="shared" ref="T14:U14" si="12">SUM(T12:T13)</f>
         <v>-4222</v>
       </c>
-      <c r="U14" s="59"/>
-      <c r="V14" s="59"/>
-      <c r="W14" s="59"/>
-      <c r="X14" s="59"/>
-      <c r="Y14" s="59"/>
-      <c r="Z14" s="59"/>
-      <c r="AA14" s="59"/>
-      <c r="AB14" s="59"/>
-      <c r="AC14" s="59"/>
-      <c r="AD14" s="59"/>
-      <c r="AE14" s="59"/>
-    </row>
-    <row r="15" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="U14" s="14">
+        <f t="shared" si="12"/>
+        <v>-4950</v>
+      </c>
+      <c r="V14" s="61"/>
+      <c r="W14" s="61"/>
+      <c r="X14" s="61"/>
+      <c r="Y14" s="61"/>
+      <c r="Z14" s="61"/>
+      <c r="AA14" s="61"/>
+      <c r="AB14" s="61"/>
+      <c r="AC14" s="61"/>
+      <c r="AD14" s="61"/>
+      <c r="AE14" s="61"/>
+      <c r="AF14" s="61"/>
+    </row>
+    <row r="15" spans="2:32" x14ac:dyDescent="0.2">
       <c r="E15" s="2" t="s">
         <v>93</v>
       </c>
@@ -1814,14 +1838,14 @@
         <v>1825</v>
       </c>
       <c r="M15" s="13">
-        <f t="shared" ref="M15:T15" si="14">SUM(M14,M11)</f>
+        <f t="shared" ref="M15:U15" si="14">SUM(M14,M11)</f>
         <v>1641</v>
       </c>
       <c r="N15" s="13">
         <f t="shared" si="14"/>
         <v>1738</v>
       </c>
-      <c r="O15" s="48">
+      <c r="O15" s="49">
         <f>SUM(O14,O11)</f>
         <v>1956</v>
       </c>
@@ -1837,7 +1861,7 @@
         <f t="shared" si="14"/>
         <v>2113</v>
       </c>
-      <c r="S15" s="48">
+      <c r="S15" s="49">
         <f t="shared" si="14"/>
         <v>1425</v>
       </c>
@@ -1846,222 +1870,235 @@
         <v>1506</v>
       </c>
       <c r="U15" s="13">
+        <f t="shared" si="14"/>
+        <v>2632</v>
+      </c>
+      <c r="V15" s="45">
         <v>2440</v>
       </c>
-      <c r="V15" s="13">
+      <c r="W15" s="45">
         <v>2783</v>
       </c>
-      <c r="W15" s="13">
+      <c r="X15" s="45">
         <v>3074</v>
       </c>
-      <c r="X15" s="13">
+      <c r="Y15" s="45">
         <v>2841</v>
       </c>
-      <c r="Y15" s="13">
+      <c r="Z15" s="45">
         <v>3082</v>
       </c>
-      <c r="Z15" s="13">
+      <c r="AA15" s="45">
         <v>3366</v>
       </c>
-      <c r="AA15" s="13">
+      <c r="AB15" s="45">
         <v>3654</v>
       </c>
-      <c r="AB15" s="13">
+      <c r="AC15" s="45">
         <v>3164</v>
       </c>
-      <c r="AC15" s="13">
+      <c r="AD15" s="45">
         <v>3137</v>
       </c>
-      <c r="AD15" s="13">
+      <c r="AE15" s="45">
         <v>3108</v>
       </c>
-      <c r="AE15" s="13">
+      <c r="AF15" s="45">
         <v>3045</v>
       </c>
     </row>
-    <row r="16" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:32" x14ac:dyDescent="0.2">
       <c r="E16" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F16" s="45">
+      <c r="F16" s="46">
         <v>-370</v>
       </c>
-      <c r="G16" s="45">
+      <c r="G16" s="46">
         <v>-383</v>
       </c>
-      <c r="H16" s="45">
+      <c r="H16" s="46">
         <v>-420</v>
       </c>
-      <c r="I16" s="45">
+      <c r="I16" s="46">
         <v>-479</v>
       </c>
-      <c r="J16" s="45">
+      <c r="J16" s="46">
         <v>-513</v>
       </c>
-      <c r="L16" s="45">
+      <c r="L16" s="46">
         <v>-126</v>
       </c>
-      <c r="M16" s="45">
+      <c r="M16" s="46">
         <v>-115</v>
       </c>
-      <c r="N16" s="45">
+      <c r="N16" s="46">
         <v>-118</v>
       </c>
-      <c r="O16" s="49">
+      <c r="O16" s="50">
         <f>I16-SUM(L16:N16)</f>
         <v>-120</v>
       </c>
-      <c r="P16" s="45">
+      <c r="P16" s="46">
         <v>-144</v>
       </c>
-      <c r="Q16" s="45">
+      <c r="Q16" s="46">
         <v>-123</v>
       </c>
-      <c r="R16" s="45">
+      <c r="R16" s="46">
         <v>-117</v>
       </c>
-      <c r="S16" s="49">
+      <c r="S16" s="50">
         <f t="shared" ref="S16:S18" si="15">J16-SUM(P16:R16)</f>
         <v>-129</v>
       </c>
-      <c r="T16" s="45">
+      <c r="T16" s="46">
         <v>-154</v>
       </c>
-      <c r="U16" s="59"/>
-      <c r="V16" s="59"/>
-      <c r="W16" s="59"/>
-      <c r="X16" s="59"/>
-      <c r="Y16" s="59"/>
-      <c r="Z16" s="59"/>
-      <c r="AA16" s="59"/>
-      <c r="AB16" s="59"/>
-      <c r="AC16" s="59"/>
-      <c r="AD16" s="59"/>
-      <c r="AE16" s="59"/>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="U16" s="46">
+        <v>-127</v>
+      </c>
+      <c r="V16" s="61"/>
+      <c r="W16" s="61"/>
+      <c r="X16" s="61"/>
+      <c r="Y16" s="61"/>
+      <c r="Z16" s="61"/>
+      <c r="AA16" s="61"/>
+      <c r="AB16" s="61"/>
+      <c r="AC16" s="61"/>
+      <c r="AD16" s="61"/>
+      <c r="AE16" s="61"/>
+      <c r="AF16" s="61"/>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="E17" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F17" s="45">
+      <c r="F17" s="46">
         <v>-50</v>
       </c>
-      <c r="G17" s="45">
+      <c r="G17" s="46">
         <v>-55</v>
       </c>
-      <c r="H17" s="45">
+      <c r="H17" s="46">
         <v>-115</v>
       </c>
-      <c r="I17" s="45">
+      <c r="I17" s="46">
         <v>-137</v>
       </c>
-      <c r="J17" s="45">
+      <c r="J17" s="46">
         <v>-156</v>
       </c>
-      <c r="L17" s="45">
+      <c r="L17" s="46">
         <v>-31</v>
       </c>
-      <c r="M17" s="45">
+      <c r="M17" s="46">
         <v>-42</v>
       </c>
-      <c r="N17" s="45">
+      <c r="N17" s="46">
         <v>-30</v>
       </c>
-      <c r="O17" s="49">
+      <c r="O17" s="50">
         <f>I17-SUM(L17:N17)</f>
         <v>-34</v>
       </c>
-      <c r="P17" s="45">
+      <c r="P17" s="46">
         <v>-37</v>
       </c>
-      <c r="Q17" s="45">
+      <c r="Q17" s="46">
         <v>-40</v>
       </c>
-      <c r="R17" s="45">
+      <c r="R17" s="46">
         <v>-38</v>
       </c>
-      <c r="S17" s="49">
+      <c r="S17" s="50">
         <f t="shared" si="15"/>
         <v>-41</v>
       </c>
-      <c r="T17" s="45">
+      <c r="T17" s="46">
         <v>-39</v>
       </c>
-      <c r="U17" s="59"/>
-      <c r="V17" s="59"/>
-      <c r="W17" s="59"/>
-      <c r="X17" s="59"/>
-      <c r="Y17" s="59"/>
-      <c r="Z17" s="59"/>
-      <c r="AA17" s="59"/>
-      <c r="AB17" s="59"/>
-      <c r="AC17" s="59"/>
-      <c r="AD17" s="59"/>
-      <c r="AE17" s="59"/>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="U17" s="46">
+        <v>-46</v>
+      </c>
+      <c r="V17" s="61"/>
+      <c r="W17" s="61"/>
+      <c r="X17" s="61"/>
+      <c r="Y17" s="61"/>
+      <c r="Z17" s="61"/>
+      <c r="AA17" s="61"/>
+      <c r="AB17" s="61"/>
+      <c r="AC17" s="61"/>
+      <c r="AD17" s="61"/>
+      <c r="AE17" s="61"/>
+      <c r="AF17" s="61"/>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="E18" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F18" s="46">
+      <c r="F18" s="47">
         <v>-159</v>
       </c>
-      <c r="G18" s="46">
+      <c r="G18" s="47">
         <v>-91</v>
       </c>
-      <c r="H18" s="46">
+      <c r="H18" s="47">
         <v>-121</v>
       </c>
-      <c r="I18" s="46">
+      <c r="I18" s="47">
         <v>-319</v>
       </c>
-      <c r="J18" s="46">
+      <c r="J18" s="47">
         <v>-127</v>
       </c>
-      <c r="K18" s="37"/>
-      <c r="L18" s="46">
+      <c r="K18" s="38"/>
+      <c r="L18" s="47">
         <v>-67</v>
       </c>
-      <c r="M18" s="46">
+      <c r="M18" s="47">
         <v>-74</v>
       </c>
-      <c r="N18" s="46">
+      <c r="N18" s="47">
         <v>-98</v>
       </c>
-      <c r="O18" s="50">
+      <c r="O18" s="51">
         <f>I18-SUM(L18:N18)</f>
         <v>-80</v>
       </c>
-      <c r="P18" s="46">
+      <c r="P18" s="47">
         <v>-67</v>
       </c>
-      <c r="Q18" s="46">
+      <c r="Q18" s="47">
         <v>-28</v>
       </c>
-      <c r="R18" s="46">
+      <c r="R18" s="47">
         <v>-20</v>
       </c>
-      <c r="S18" s="50">
+      <c r="S18" s="51">
         <f t="shared" si="15"/>
         <v>-12</v>
       </c>
-      <c r="T18" s="46">
+      <c r="T18" s="47">
         <v>-10</v>
       </c>
-      <c r="U18" s="59"/>
-      <c r="V18" s="59"/>
-      <c r="W18" s="59"/>
-      <c r="X18" s="59"/>
-      <c r="Y18" s="59"/>
-      <c r="Z18" s="59"/>
-      <c r="AA18" s="59"/>
-      <c r="AB18" s="59"/>
-      <c r="AC18" s="59"/>
-      <c r="AD18" s="59"/>
-      <c r="AE18" s="59"/>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="E19" s="35" t="s">
+      <c r="U18" s="47">
+        <v>-27</v>
+      </c>
+      <c r="V18" s="61"/>
+      <c r="W18" s="61"/>
+      <c r="X18" s="61"/>
+      <c r="Y18" s="61"/>
+      <c r="Z18" s="61"/>
+      <c r="AA18" s="61"/>
+      <c r="AB18" s="61"/>
+      <c r="AC18" s="61"/>
+      <c r="AD18" s="61"/>
+      <c r="AE18" s="61"/>
+      <c r="AF18" s="61"/>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="E19" s="36" t="s">
         <v>89</v>
       </c>
       <c r="F19" s="14">
@@ -2096,7 +2133,7 @@
         <f>SUM(N16:N18)</f>
         <v>-246</v>
       </c>
-      <c r="O19" s="50">
+      <c r="O19" s="51">
         <f>SUM(O16:O18)</f>
         <v>-234</v>
       </c>
@@ -2112,7 +2149,7 @@
         <f>SUM(R16:R18)</f>
         <v>-175</v>
       </c>
-      <c r="S19" s="50">
+      <c r="S19" s="51">
         <f>SUM(S16:S18)</f>
         <v>-182</v>
       </c>
@@ -2120,238 +2157,253 @@
         <f>SUM(T16:T18)</f>
         <v>-203</v>
       </c>
-      <c r="U19" s="59"/>
-      <c r="V19" s="59"/>
-      <c r="W19" s="59"/>
-      <c r="X19" s="59"/>
-      <c r="Y19" s="59"/>
-      <c r="Z19" s="59"/>
-      <c r="AA19" s="59"/>
-      <c r="AB19" s="59"/>
-      <c r="AC19" s="59"/>
-      <c r="AD19" s="59"/>
-      <c r="AE19" s="59"/>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="U19" s="14">
+        <f>SUM(U16:U18)</f>
+        <v>-200</v>
+      </c>
+      <c r="V19" s="61"/>
+      <c r="W19" s="61"/>
+      <c r="X19" s="61"/>
+      <c r="Y19" s="61"/>
+      <c r="Z19" s="61"/>
+      <c r="AA19" s="61"/>
+      <c r="AB19" s="61"/>
+      <c r="AC19" s="61"/>
+      <c r="AD19" s="61"/>
+      <c r="AE19" s="61"/>
+      <c r="AF19" s="61"/>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="E20" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="40">
+      <c r="F20" s="41">
         <f>SUM(F19,F15)</f>
         <v>1964</v>
       </c>
-      <c r="G20" s="40">
+      <c r="G20" s="41">
         <f>SUM(G19,G15)</f>
         <v>8286</v>
       </c>
-      <c r="H20" s="40">
+      <c r="H20" s="41">
         <f>SUM(H19,H15)</f>
         <v>7035</v>
       </c>
-      <c r="I20" s="40">
+      <c r="I20" s="41">
         <f>SUM(I19,I15)</f>
         <v>6225</v>
       </c>
-      <c r="J20" s="40">
+      <c r="J20" s="41">
         <f>SUM(J19,J15)</f>
         <v>6864</v>
       </c>
-      <c r="K20" s="41"/>
-      <c r="L20" s="40">
+      <c r="K20" s="42"/>
+      <c r="L20" s="41">
         <f>SUM(L19,L15)</f>
         <v>1601</v>
       </c>
-      <c r="M20" s="40">
+      <c r="M20" s="41">
         <f>SUM(M19,M15)</f>
         <v>1410</v>
       </c>
-      <c r="N20" s="40">
+      <c r="N20" s="41">
         <f>SUM(N19,N15)</f>
         <v>1492</v>
       </c>
-      <c r="O20" s="51">
+      <c r="O20" s="52">
         <f>SUM(O19,O15)</f>
         <v>1722</v>
       </c>
-      <c r="P20" s="40">
+      <c r="P20" s="41">
         <f>SUM(P19,P15)</f>
         <v>1634</v>
       </c>
-      <c r="Q20" s="40">
+      <c r="Q20" s="41">
         <f>SUM(Q19,Q15)</f>
         <v>2049</v>
       </c>
-      <c r="R20" s="40">
+      <c r="R20" s="41">
         <f>SUM(R19,R15)</f>
         <v>1938</v>
       </c>
-      <c r="S20" s="51">
+      <c r="S20" s="52">
         <f>SUM(S19,S15)</f>
         <v>1243</v>
       </c>
-      <c r="T20" s="40">
+      <c r="T20" s="41">
         <f>SUM(T19,T15)</f>
         <v>1303</v>
       </c>
-      <c r="U20" s="40">
+      <c r="U20" s="41">
+        <f>SUM(U19,U15)</f>
+        <v>2432</v>
+      </c>
+      <c r="V20" s="63">
         <v>2393</v>
       </c>
-      <c r="V20" s="40">
+      <c r="W20" s="63">
         <v>2540</v>
       </c>
-      <c r="W20" s="40">
+      <c r="X20" s="63">
         <v>2494</v>
       </c>
-      <c r="X20" s="40">
+      <c r="Y20" s="63">
         <v>1918</v>
       </c>
-      <c r="Y20" s="59"/>
-      <c r="Z20" s="59"/>
-      <c r="AA20" s="59"/>
-      <c r="AB20" s="59"/>
-      <c r="AC20" s="59"/>
-      <c r="AD20" s="59"/>
-      <c r="AE20" s="59"/>
-    </row>
-    <row r="21" spans="1:31" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z20" s="61"/>
+      <c r="AA20" s="61"/>
+      <c r="AB20" s="61"/>
+      <c r="AC20" s="61"/>
+      <c r="AD20" s="61"/>
+      <c r="AE20" s="61"/>
+      <c r="AF20" s="61"/>
+    </row>
+    <row r="21" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21"/>
-      <c r="E21" s="39" t="s">
+      <c r="E21" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="F21" s="47">
+      <c r="F21" s="48">
         <v>-598</v>
       </c>
-      <c r="G21" s="47">
+      <c r="G21" s="48">
         <v>-602</v>
       </c>
-      <c r="H21" s="47">
+      <c r="H21" s="48">
         <v>-560</v>
       </c>
-      <c r="I21" s="47">
+      <c r="I21" s="48">
         <v>-515</v>
       </c>
-      <c r="J21" s="47">
+      <c r="J21" s="48">
         <v>-319</v>
       </c>
-      <c r="K21" s="42"/>
-      <c r="L21" s="47">
+      <c r="K21" s="43"/>
+      <c r="L21" s="48">
         <v>-151</v>
       </c>
-      <c r="M21" s="47">
+      <c r="M21" s="48">
         <v>-171</v>
       </c>
-      <c r="N21" s="47">
+      <c r="N21" s="48">
         <v>-96</v>
       </c>
-      <c r="O21" s="52">
+      <c r="O21" s="53">
         <f>I21-SUM(L21:N21)</f>
         <v>-97</v>
       </c>
-      <c r="P21" s="47">
+      <c r="P21" s="48">
         <v>-89</v>
       </c>
-      <c r="Q21" s="47">
+      <c r="Q21" s="48">
         <v>-88</v>
       </c>
-      <c r="R21" s="47">
+      <c r="R21" s="48">
         <v>-72</v>
       </c>
-      <c r="S21" s="52">
+      <c r="S21" s="53">
         <f t="shared" ref="S21:S22" si="16">J21-SUM(P21:R21)</f>
         <v>-70</v>
       </c>
-      <c r="T21" s="47">
+      <c r="T21" s="48">
         <v>-70</v>
       </c>
-      <c r="U21" s="59"/>
-      <c r="V21" s="59"/>
-      <c r="W21" s="59"/>
-      <c r="X21" s="59"/>
-      <c r="Y21" s="59"/>
-      <c r="Z21" s="59"/>
-      <c r="AA21" s="59"/>
-      <c r="AB21" s="59"/>
-      <c r="AC21" s="59"/>
-      <c r="AD21" s="59"/>
-      <c r="AE21" s="59"/>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="E22" s="39" t="s">
+      <c r="U21" s="48">
+        <v>-82</v>
+      </c>
+      <c r="V21" s="61"/>
+      <c r="W21" s="61"/>
+      <c r="X21" s="61"/>
+      <c r="Y21" s="61"/>
+      <c r="Z21" s="61"/>
+      <c r="AA21" s="61"/>
+      <c r="AB21" s="61"/>
+      <c r="AC21" s="61"/>
+      <c r="AD21" s="61"/>
+      <c r="AE21" s="61"/>
+      <c r="AF21" s="61"/>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="E22" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="F22" s="46">
+      <c r="F22" s="47">
         <f>-101+59+473+12</f>
         <v>443</v>
       </c>
-      <c r="G22" s="46">
+      <c r="G22" s="47">
         <f>-105+80+5</f>
         <v>-20</v>
       </c>
-      <c r="H22" s="46">
+      <c r="H22" s="47">
         <f>31+207+2+31</f>
         <v>271</v>
       </c>
-      <c r="I22" s="46">
+      <c r="I22" s="47">
         <f>10+286+15</f>
         <v>311</v>
       </c>
-      <c r="J22" s="46">
+      <c r="J22" s="47">
         <f>362+15</f>
         <v>377</v>
       </c>
-      <c r="K22" s="38"/>
-      <c r="L22" s="46">
+      <c r="K22" s="39"/>
+      <c r="L22" s="47">
         <f>88+10</f>
         <v>98</v>
       </c>
-      <c r="M22" s="46">
+      <c r="M22" s="47">
         <f>24+5+2</f>
         <v>31</v>
       </c>
-      <c r="N22" s="46">
+      <c r="N22" s="47">
         <f>5+71</f>
         <v>76</v>
       </c>
-      <c r="O22" s="50">
+      <c r="O22" s="51">
         <f>I22-SUM(L22:N22)</f>
         <v>106</v>
       </c>
-      <c r="P22" s="46">
+      <c r="P22" s="47">
         <f>129</f>
         <v>129</v>
       </c>
-      <c r="Q22" s="46">
+      <c r="Q22" s="47">
         <f>69+4</f>
         <v>73</v>
       </c>
-      <c r="R22" s="46">
+      <c r="R22" s="47">
         <f>97+10</f>
         <v>107</v>
       </c>
-      <c r="S22" s="50">
+      <c r="S22" s="51">
         <f t="shared" si="16"/>
         <v>68</v>
       </c>
-      <c r="T22" s="46">
+      <c r="T22" s="47">
         <f>58+2</f>
         <v>60</v>
       </c>
-      <c r="U22" s="59"/>
-      <c r="V22" s="59"/>
-      <c r="W22" s="59"/>
-      <c r="X22" s="59"/>
-      <c r="Y22" s="59"/>
-      <c r="Z22" s="59"/>
-      <c r="AA22" s="59"/>
-      <c r="AB22" s="59"/>
-      <c r="AC22" s="59"/>
-      <c r="AD22" s="59"/>
-      <c r="AE22" s="59"/>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="U22" s="47">
+        <f>41+6</f>
+        <v>47</v>
+      </c>
+      <c r="V22" s="61"/>
+      <c r="W22" s="61"/>
+      <c r="X22" s="61"/>
+      <c r="Y22" s="61"/>
+      <c r="Z22" s="61"/>
+      <c r="AA22" s="61"/>
+      <c r="AB22" s="61"/>
+      <c r="AC22" s="61"/>
+      <c r="AD22" s="61"/>
+      <c r="AE22" s="61"/>
+      <c r="AF22" s="61"/>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="E23" s="10" t="s">
         <v>13</v>
       </c>
@@ -2387,7 +2439,7 @@
         <f t="shared" si="22"/>
         <v>1472</v>
       </c>
-      <c r="O23" s="48">
+      <c r="O23" s="49">
         <f>SUM(O20:O22)</f>
         <v>1731</v>
       </c>
@@ -2403,7 +2455,7 @@
         <f t="shared" si="22"/>
         <v>1973</v>
       </c>
-      <c r="S23" s="48">
+      <c r="S23" s="49">
         <f t="shared" si="22"/>
         <v>1241</v>
       </c>
@@ -2411,139 +2463,149 @@
         <f>SUM(T20:T22)</f>
         <v>1293</v>
       </c>
-      <c r="U23" s="59"/>
-      <c r="V23" s="59"/>
-      <c r="W23" s="59"/>
-      <c r="X23" s="59"/>
-      <c r="Y23" s="59"/>
-      <c r="Z23" s="59"/>
-      <c r="AA23" s="59"/>
-      <c r="AB23" s="59"/>
-      <c r="AC23" s="59"/>
-      <c r="AD23" s="59"/>
-      <c r="AE23" s="59"/>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="U23" s="13">
+        <f>SUM(U20:U22)</f>
+        <v>2397</v>
+      </c>
+      <c r="V23" s="61"/>
+      <c r="W23" s="61"/>
+      <c r="X23" s="61"/>
+      <c r="Y23" s="61"/>
+      <c r="Z23" s="61"/>
+      <c r="AA23" s="61"/>
+      <c r="AB23" s="61"/>
+      <c r="AC23" s="61"/>
+      <c r="AD23" s="61"/>
+      <c r="AE23" s="61"/>
+      <c r="AF23" s="61"/>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="E24" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="45">
+      <c r="F24" s="46">
         <v>-944</v>
       </c>
-      <c r="G24" s="45">
+      <c r="G24" s="46">
         <v>-2299</v>
       </c>
-      <c r="H24" s="45">
+      <c r="H24" s="46">
         <v>-2267</v>
       </c>
-      <c r="I24" s="45">
+      <c r="I24" s="46">
         <v>-2270</v>
       </c>
-      <c r="J24" s="45">
+      <c r="J24" s="46">
         <v>-2523</v>
       </c>
-      <c r="L24" s="45">
+      <c r="L24" s="46">
         <v>-499</v>
       </c>
-      <c r="M24" s="45">
+      <c r="M24" s="46">
         <v>-539</v>
       </c>
-      <c r="N24" s="45">
+      <c r="N24" s="46">
         <v>-508</v>
       </c>
-      <c r="O24" s="49">
+      <c r="O24" s="50">
         <f>I24-SUM(L24:N24)</f>
         <v>-724</v>
       </c>
-      <c r="P24" s="45">
+      <c r="P24" s="46">
         <v>-512</v>
       </c>
-      <c r="Q24" s="45">
+      <c r="Q24" s="46">
         <v>-754</v>
       </c>
-      <c r="R24" s="45">
+      <c r="R24" s="46">
         <v>-737</v>
       </c>
-      <c r="S24" s="49">
+      <c r="S24" s="50">
         <f t="shared" ref="S24:S25" si="23">J24-SUM(P24:R24)</f>
         <v>-520</v>
       </c>
-      <c r="T24" s="45">
+      <c r="T24" s="46">
         <v>-500</v>
       </c>
-      <c r="U24" s="59"/>
-      <c r="V24" s="59"/>
-      <c r="W24" s="59"/>
-      <c r="X24" s="59"/>
-      <c r="Y24" s="59"/>
-      <c r="Z24" s="59"/>
-      <c r="AA24" s="59"/>
-      <c r="AB24" s="59"/>
-      <c r="AC24" s="59"/>
-      <c r="AD24" s="59"/>
-      <c r="AE24" s="59"/>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="U24" s="46">
+        <v>-850</v>
+      </c>
+      <c r="V24" s="61"/>
+      <c r="W24" s="61"/>
+      <c r="X24" s="61"/>
+      <c r="Y24" s="61"/>
+      <c r="Z24" s="61"/>
+      <c r="AA24" s="61"/>
+      <c r="AB24" s="61"/>
+      <c r="AC24" s="61"/>
+      <c r="AD24" s="61"/>
+      <c r="AE24" s="61"/>
+      <c r="AF24" s="61"/>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="E25" t="s">
         <v>90</v>
       </c>
-      <c r="F25" s="45">
+      <c r="F25" s="46">
         <v>-266</v>
       </c>
-      <c r="G25" s="45">
+      <c r="G25" s="46">
         <v>-1059</v>
       </c>
-      <c r="H25" s="45">
+      <c r="H25" s="46">
         <v>-1011</v>
       </c>
-      <c r="I25" s="45">
+      <c r="I25" s="46">
         <v>-1903</v>
       </c>
-      <c r="J25" s="45">
+      <c r="J25" s="46">
         <v>-2510</v>
       </c>
-      <c r="L25" s="45">
+      <c r="L25" s="46">
         <v>-386</v>
       </c>
-      <c r="M25" s="45">
+      <c r="M25" s="46">
         <v>-388</v>
       </c>
-      <c r="N25" s="45">
+      <c r="N25" s="46">
         <v>-510</v>
       </c>
-      <c r="O25" s="49">
+      <c r="O25" s="50">
         <f>I25-SUM(L25:N25)</f>
         <v>-619</v>
       </c>
-      <c r="P25" s="45">
+      <c r="P25" s="46">
         <v>-689</v>
       </c>
-      <c r="Q25" s="45">
+      <c r="Q25" s="46">
         <v>-664</v>
       </c>
-      <c r="R25" s="45">
+      <c r="R25" s="46">
         <v>-710</v>
       </c>
-      <c r="S25" s="49">
+      <c r="S25" s="50">
         <f t="shared" si="23"/>
         <v>-447</v>
       </c>
-      <c r="T25" s="45">
+      <c r="T25" s="46">
         <v>-441</v>
       </c>
-      <c r="U25" s="59"/>
-      <c r="V25" s="59"/>
-      <c r="W25" s="59"/>
-      <c r="X25" s="59"/>
-      <c r="Y25" s="59"/>
-      <c r="Z25" s="59"/>
-      <c r="AA25" s="59"/>
-      <c r="AB25" s="59"/>
-      <c r="AC25" s="59"/>
-      <c r="AD25" s="59"/>
-      <c r="AE25" s="59"/>
-    </row>
-    <row r="26" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U25" s="46">
+        <v>-775</v>
+      </c>
+      <c r="V25" s="61"/>
+      <c r="W25" s="61"/>
+      <c r="X25" s="61"/>
+      <c r="Y25" s="61"/>
+      <c r="Z25" s="61"/>
+      <c r="AA25" s="61"/>
+      <c r="AB25" s="61"/>
+      <c r="AC25" s="61"/>
+      <c r="AD25" s="61"/>
+      <c r="AE25" s="61"/>
+      <c r="AF25" s="61"/>
+    </row>
+    <row r="26" spans="1:32" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E26" s="2" t="s">
         <v>91</v>
       </c>
@@ -2579,7 +2641,7 @@
         <f t="shared" ref="N26" si="27">SUM(N23:N25)</f>
         <v>454</v>
       </c>
-      <c r="O26" s="53">
+      <c r="O26" s="54">
         <f>SUM(O23:O25)</f>
         <v>388</v>
       </c>
@@ -2595,53 +2657,57 @@
         <f t="shared" ref="R26" si="30">SUM(R23:R25)</f>
         <v>526</v>
       </c>
-      <c r="S26" s="53">
+      <c r="S26" s="54">
         <f t="shared" ref="S26" si="31">SUM(S23:S25)</f>
         <v>274</v>
       </c>
       <c r="T26" s="16">
-        <f t="shared" ref="T26" si="32">SUM(T23:T25)</f>
+        <f t="shared" ref="T26:U26" si="32">SUM(T23:T25)</f>
         <v>352</v>
       </c>
       <c r="U26" s="16">
+        <f t="shared" si="32"/>
+        <v>772</v>
+      </c>
+      <c r="V26" s="64">
         <v>664</v>
       </c>
-      <c r="V26" s="16">
+      <c r="W26" s="64">
         <v>759</v>
       </c>
-      <c r="W26" s="16">
+      <c r="X26" s="64">
         <v>810</v>
       </c>
-      <c r="X26" s="16">
+      <c r="Y26" s="64">
         <v>761</v>
       </c>
-      <c r="Y26" s="16">
+      <c r="Z26" s="64">
         <v>1115</v>
       </c>
-      <c r="Z26" s="16">
+      <c r="AA26" s="64">
         <v>1263</v>
       </c>
-      <c r="AA26" s="16">
+      <c r="AB26" s="64">
         <v>1440</v>
       </c>
-      <c r="AB26" s="16">
+      <c r="AC26" s="64">
         <v>1026</v>
       </c>
-      <c r="AC26" s="16">
+      <c r="AD26" s="64">
         <v>1006</v>
       </c>
-      <c r="AD26" s="16">
+      <c r="AE26" s="64">
         <v>997</v>
       </c>
-      <c r="AE26" s="16">
+      <c r="AF26" s="64">
         <v>975</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O27" s="54"/>
-      <c r="S27" s="54"/>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:32" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O27" s="55"/>
+      <c r="S27" s="55"/>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="E28" s="26" t="s">
         <v>24</v>
       </c>
@@ -2677,7 +2743,7 @@
         <f>IFERROR(+N11/M11-1,"n/a")</f>
         <v>1.5164720237057727E-2</v>
       </c>
-      <c r="O28" s="55">
+      <c r="O28" s="56">
         <f>IFERROR(+O11/N11-1,"n/a")</f>
         <v>1.3907967032966928E-2</v>
       </c>
@@ -2693,7 +2759,7 @@
         <f>IFERROR(+R11/Q11-1,"n/a")</f>
         <v>2.5060386473430007E-2</v>
       </c>
-      <c r="S28" s="55">
+      <c r="S28" s="56">
         <f>IFERROR(+S11/R11-1,"n/a")</f>
         <v>-0.15758468335787923</v>
       </c>
@@ -2703,50 +2769,54 @@
       </c>
       <c r="U28" s="18">
         <f>IFERROR(+U11/T11-1,"n/a")</f>
+        <v>0.323673184357542</v>
+      </c>
+      <c r="V28" s="18">
+        <f>IFERROR(+V11/T11-1,"n/a")</f>
         <v>0.25541201117318435</v>
-      </c>
-      <c r="V28" s="18">
-        <f>IFERROR(+V11/U11-1,"n/a")</f>
-        <v>6.2021971909331119E-2</v>
       </c>
       <c r="W28" s="18">
         <f>IFERROR(+W11/V11-1,"n/a")</f>
-        <v>-7.5946052114704843E-3</v>
+        <v>6.2021971909331119E-2</v>
       </c>
       <c r="X28" s="18">
         <f>IFERROR(+X11/W11-1,"n/a")</f>
-        <v>-2.7312310331178202E-2</v>
+        <v>-7.5946052114704843E-3</v>
       </c>
       <c r="Y28" s="18">
         <f>IFERROR(+Y11/X11-1,"n/a")</f>
-        <v>8.3966359196961493E-2</v>
+        <v>-2.7312310331178202E-2</v>
       </c>
       <c r="Z28" s="18">
         <f>IFERROR(+Z11/Y11-1,"n/a")</f>
-        <v>4.7303216118132818E-2</v>
+        <v>8.3966359196961493E-2</v>
       </c>
       <c r="AA28" s="18">
         <f>IFERROR(+AA11/Z11-1,"n/a")</f>
-        <v>4.11040745608795E-2</v>
+        <v>4.7303216118132818E-2</v>
       </c>
       <c r="AB28" s="18">
         <f>IFERROR(+AB11/AA11-1,"n/a")</f>
-        <v>-6.3583151612533029E-2</v>
+        <v>4.11040745608795E-2</v>
       </c>
       <c r="AC28" s="18">
         <f>IFERROR(+AC11/AB11-1,"n/a")</f>
-        <v>5.7605098664053056E-3</v>
+        <v>-6.3583151612533029E-2</v>
       </c>
       <c r="AD28" s="18">
         <f>IFERROR(+AD11/AC11-1,"n/a")</f>
-        <v>5.4837923470631988E-3</v>
+        <v>5.7605098664053056E-3</v>
       </c>
       <c r="AE28" s="18">
         <f>IFERROR(+AE11/AD11-1,"n/a")</f>
+        <v>5.4837923470631988E-3</v>
+      </c>
+      <c r="AF28" s="18">
+        <f>IFERROR(+AF11/AE11-1,"n/a")</f>
         <v>-4.7266997939643396E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
       <c r="E29" s="27" t="s">
         <v>98</v>
       </c>
@@ -2755,7 +2825,7 @@
         <v>0.17910973376531905</v>
       </c>
       <c r="G29" s="20">
-        <f t="shared" ref="G29:AE29" si="33">+G15/G11</f>
+        <f t="shared" ref="G29:AF29" si="33">+G15/G11</f>
         <v>0.38586123878310352</v>
       </c>
       <c r="H29" s="20">
@@ -2807,51 +2877,55 @@
         <v>0.26291899441340782</v>
       </c>
       <c r="U29" s="20">
+        <f t="shared" ref="U29" si="34">+U15/U11</f>
+        <v>0.3471379583223424</v>
+      </c>
+      <c r="V29" s="20">
         <f t="shared" si="33"/>
         <v>0.33931303017660963</v>
       </c>
-      <c r="V29" s="20">
+      <c r="W29" s="20">
         <f t="shared" si="33"/>
         <v>0.36441010868141943</v>
       </c>
-      <c r="W29" s="20">
+      <c r="X29" s="20">
         <f t="shared" si="33"/>
         <v>0.40559440559440557</v>
       </c>
-      <c r="X29" s="20">
+      <c r="Y29" s="20">
         <f t="shared" si="33"/>
         <v>0.38537710255018992</v>
       </c>
-      <c r="Y29" s="20">
+      <c r="Z29" s="20">
         <f t="shared" si="33"/>
         <v>0.38568389438117884</v>
       </c>
-      <c r="Z29" s="20">
+      <c r="AA29" s="20">
         <f t="shared" si="33"/>
         <v>0.40219859003465169</v>
       </c>
-      <c r="AA29" s="20">
+      <c r="AB29" s="20">
         <f t="shared" si="33"/>
         <v>0.41937335016641797</v>
       </c>
-      <c r="AB29" s="20">
+      <c r="AC29" s="20">
         <f t="shared" si="33"/>
         <v>0.38779262164480943</v>
       </c>
-      <c r="AC29" s="20">
+      <c r="AD29" s="20">
         <f t="shared" si="33"/>
         <v>0.38228125761637827</v>
       </c>
-      <c r="AD29" s="20">
+      <c r="AE29" s="20">
         <f t="shared" si="33"/>
         <v>0.37668161434977576</v>
       </c>
-      <c r="AE29" s="20">
+      <c r="AF29" s="20">
         <f t="shared" si="33"/>
         <v>0.37079883097905503</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="E30" s="27" t="s">
         <v>25</v>
       </c>
@@ -2887,7 +2961,7 @@
         <f>IFERROR(+N20/N11,"n/a")</f>
         <v>0.25618131868131866</v>
       </c>
-      <c r="O30" s="56">
+      <c r="O30" s="57">
         <f>IFERROR(+O20/O11,"n/a")</f>
         <v>0.29161727349703642</v>
       </c>
@@ -2903,7 +2977,7 @@
         <f>IFERROR(+R20/R11,"n/a")</f>
         <v>0.28541973490427097</v>
       </c>
-      <c r="S30" s="56">
+      <c r="S30" s="57">
         <f>IFERROR(+S20/S11,"n/a")</f>
         <v>0.21730769230769231</v>
       </c>
@@ -2913,23 +2987,23 @@
       </c>
       <c r="U30" s="20">
         <f>IFERROR(+U20/U11,"n/a")</f>
-        <v>0.33277708246419135</v>
+        <v>0.320759694012134</v>
       </c>
       <c r="V30" s="20">
         <f>IFERROR(+V20/V11,"n/a")</f>
-        <v>0.33259133167474136</v>
+        <v>0.33277708246419135</v>
       </c>
       <c r="W30" s="20">
         <f>IFERROR(+W20/W11,"n/a")</f>
-        <v>0.32906715925583852</v>
+        <v>0.33259133167474136</v>
       </c>
       <c r="X30" s="20">
         <f>IFERROR(+X20/X11,"n/a")</f>
-        <v>0.26017362995116655</v>
+        <v>0.32906715925583852</v>
       </c>
       <c r="Y30" s="20">
         <f>IFERROR(+Y20/Y11,"n/a")</f>
-        <v>0</v>
+        <v>0.26017362995116655</v>
       </c>
       <c r="Z30" s="20">
         <f>IFERROR(+Z20/Z11,"n/a")</f>
@@ -2955,8 +3029,12 @@
         <f>IFERROR(+AE20/AE11,"n/a")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="20">
+        <f>IFERROR(+AF20/AF11,"n/a")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
       <c r="E31" s="27" t="s">
         <v>36</v>
       </c>
@@ -2992,7 +3070,7 @@
         <f>-N24/N23</f>
         <v>0.34510869565217389</v>
       </c>
-      <c r="O31" s="56">
+      <c r="O31" s="57">
         <f>-O24/O23</f>
         <v>0.41825534373194684</v>
       </c>
@@ -3008,7 +3086,7 @@
         <f>-R24/R23</f>
         <v>0.37354282818043588</v>
       </c>
-      <c r="S31" s="56">
+      <c r="S31" s="57">
         <f>-S24/S23</f>
         <v>0.41901692183722805</v>
       </c>
@@ -3016,19 +3094,23 @@
         <f>-T24/T23</f>
         <v>0.38669760247486468</v>
       </c>
-      <c r="U31" s="59"/>
-      <c r="V31" s="59"/>
-      <c r="W31" s="59"/>
-      <c r="X31" s="59"/>
-      <c r="Y31" s="59"/>
-      <c r="Z31" s="59"/>
-      <c r="AA31" s="59"/>
-      <c r="AB31" s="59"/>
-      <c r="AC31" s="59"/>
-      <c r="AD31" s="59"/>
-      <c r="AE31" s="59"/>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="U31" s="20">
+        <f>-U24/U23</f>
+        <v>0.3546099290780142</v>
+      </c>
+      <c r="V31" s="60"/>
+      <c r="W31" s="60"/>
+      <c r="X31" s="60"/>
+      <c r="Y31" s="60"/>
+      <c r="Z31" s="60"/>
+      <c r="AA31" s="60"/>
+      <c r="AB31" s="60"/>
+      <c r="AC31" s="60"/>
+      <c r="AD31" s="60"/>
+      <c r="AE31" s="60"/>
+      <c r="AF31" s="60"/>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="E32" s="28" t="s">
         <v>26</v>
       </c>
@@ -3064,7 +3146,7 @@
         <f>IFERROR(+N26/M26-1,"n/a")</f>
         <v>0.32361516034985427</v>
       </c>
-      <c r="O32" s="57">
+      <c r="O32" s="58">
         <f>IFERROR(+O26/N26-1,"n/a")</f>
         <v>-0.14537444933920707</v>
       </c>
@@ -3080,7 +3162,7 @@
         <f>IFERROR(+R26/Q26-1,"n/a")</f>
         <v>-0.14610389610389607</v>
       </c>
-      <c r="S32" s="57">
+      <c r="S32" s="58">
         <f>IFERROR(+S26/R26-1,"n/a")</f>
         <v>-0.47908745247148288</v>
       </c>
@@ -3090,54 +3172,58 @@
       </c>
       <c r="U32" s="22">
         <f>IFERROR(+U26/T26-1,"n/a")</f>
+        <v>1.1931818181818183</v>
+      </c>
+      <c r="V32" s="22">
+        <f>IFERROR(+V26/T26-1,"n/a")</f>
         <v>0.88636363636363646</v>
-      </c>
-      <c r="V32" s="22">
-        <f>IFERROR(+V26/U26-1,"n/a")</f>
-        <v>0.14307228915662651</v>
       </c>
       <c r="W32" s="22">
         <f>IFERROR(+W26/V26-1,"n/a")</f>
-        <v>6.7193675889328119E-2</v>
+        <v>0.14307228915662651</v>
       </c>
       <c r="X32" s="22">
         <f>IFERROR(+X26/W26-1,"n/a")</f>
-        <v>-6.0493827160493785E-2</v>
+        <v>6.7193675889328119E-2</v>
       </c>
       <c r="Y32" s="22">
         <f>IFERROR(+Y26/X26-1,"n/a")</f>
-        <v>0.46517739816031534</v>
+        <v>-6.0493827160493785E-2</v>
       </c>
       <c r="Z32" s="22">
         <f>IFERROR(+Z26/Y26-1,"n/a")</f>
-        <v>0.13273542600896859</v>
+        <v>0.46517739816031534</v>
       </c>
       <c r="AA32" s="22">
         <f>IFERROR(+AA26/Z26-1,"n/a")</f>
-        <v>0.14014251781472686</v>
+        <v>0.13273542600896859</v>
       </c>
       <c r="AB32" s="22">
         <f>IFERROR(+AB26/AA26-1,"n/a")</f>
-        <v>-0.28749999999999998</v>
+        <v>0.14014251781472686</v>
       </c>
       <c r="AC32" s="22">
         <f>IFERROR(+AC26/AB26-1,"n/a")</f>
-        <v>-1.9493177387914229E-2</v>
+        <v>-0.28749999999999998</v>
       </c>
       <c r="AD32" s="22">
         <f>IFERROR(+AD26/AC26-1,"n/a")</f>
-        <v>-8.9463220675943811E-3</v>
+        <v>-1.9493177387914229E-2</v>
       </c>
       <c r="AE32" s="22">
         <f>IFERROR(+AE26/AD26-1,"n/a")</f>
+        <v>-8.9463220675943811E-3</v>
+      </c>
+      <c r="AF32" s="22">
+        <f>IFERROR(+AF26/AE26-1,"n/a")</f>
         <v>-2.2066198595787401E-2</v>
       </c>
     </row>
-    <row r="33" spans="3:31" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O33" s="54"/>
-      <c r="S33" s="54"/>
-    </row>
-    <row r="34" spans="3:31" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:32" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O33" s="55"/>
+      <c r="S33" s="55"/>
+    </row>
+    <row r="34" spans="3:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E34" s="24" t="s">
         <v>95</v>
       </c>
@@ -3149,11 +3235,11 @@
       <c r="L34" s="12"/>
       <c r="M34" s="12"/>
       <c r="N34" s="12"/>
-      <c r="O34" s="49"/>
+      <c r="O34" s="50"/>
       <c r="P34" s="12"/>
       <c r="Q34" s="12"/>
       <c r="R34" s="12"/>
-      <c r="S34" s="49"/>
+      <c r="S34" s="50"/>
       <c r="T34" s="12"/>
       <c r="U34" s="12"/>
       <c r="V34" s="12"/>
@@ -3163,8 +3249,9 @@
       <c r="Z34" s="12"/>
       <c r="AA34" s="12"/>
       <c r="AB34" s="12"/>
-    </row>
-    <row r="35" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AC34" s="12"/>
+    </row>
+    <row r="35" spans="3:32" x14ac:dyDescent="0.2">
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="12"/>
@@ -3173,11 +3260,11 @@
       <c r="L35" s="12"/>
       <c r="M35" s="12"/>
       <c r="N35" s="12"/>
-      <c r="O35" s="49"/>
+      <c r="O35" s="50"/>
       <c r="P35" s="12"/>
       <c r="Q35" s="12"/>
       <c r="R35" s="12"/>
-      <c r="S35" s="49"/>
+      <c r="S35" s="50"/>
       <c r="T35" s="12"/>
       <c r="U35" s="12"/>
       <c r="V35" s="12"/>
@@ -3187,8 +3274,9 @@
       <c r="Z35" s="12"/>
       <c r="AA35" s="12"/>
       <c r="AB35" s="12"/>
-    </row>
-    <row r="36" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AC35" s="12"/>
+    </row>
+    <row r="36" spans="3:32" x14ac:dyDescent="0.2">
       <c r="E36" s="4" t="s">
         <v>16</v>
       </c>
@@ -3216,7 +3304,7 @@
       <c r="N36" s="15">
         <v>454</v>
       </c>
-      <c r="O36" s="58">
+      <c r="O36" s="59">
         <f>I36-SUM(L36:N36)</f>
         <v>388</v>
       </c>
@@ -3229,14 +3317,16 @@
       <c r="R36" s="15">
         <v>526</v>
       </c>
-      <c r="S36" s="58">
+      <c r="S36" s="59">
         <f>J36-SUM(P36:R36)</f>
         <v>274</v>
       </c>
       <c r="T36" s="15">
         <v>352</v>
       </c>
-      <c r="U36" s="12"/>
+      <c r="U36" s="15">
+        <v>772</v>
+      </c>
       <c r="V36" s="12"/>
       <c r="W36" s="12"/>
       <c r="X36" s="12"/>
@@ -3247,10 +3337,11 @@
       <c r="AC36" s="12"/>
       <c r="AD36" s="12"/>
       <c r="AE36" s="12"/>
-    </row>
-    <row r="37" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF36" s="12"/>
+    </row>
+    <row r="37" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C37" s="11" t="b" cm="1">
-        <f t="array" ref="C37">AND(F37:AC37&lt;$B$1,F37:AC37&gt;-$B$1)</f>
+        <f t="array" ref="C37">AND(F37:AD37&lt;$B$1,F37:AD37&gt;-$B$1)</f>
         <v>1</v>
       </c>
       <c r="E37" s="4" t="s">
@@ -3312,7 +3403,10 @@
         <f>+T36-T26</f>
         <v>0</v>
       </c>
-      <c r="U37" s="12"/>
+      <c r="U37" s="15">
+        <f>+U36-U26</f>
+        <v>0</v>
+      </c>
       <c r="V37" s="12"/>
       <c r="W37" s="12"/>
       <c r="X37" s="12"/>
@@ -3323,22 +3417,23 @@
       <c r="AC37" s="12"/>
       <c r="AD37" s="12"/>
       <c r="AE37" s="12"/>
-    </row>
-    <row r="38" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF37" s="12"/>
+    </row>
+    <row r="38" spans="3:32" x14ac:dyDescent="0.2">
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
       <c r="I38" s="12"/>
       <c r="J38" s="12"/>
     </row>
-    <row r="39" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:32" x14ac:dyDescent="0.2">
       <c r="E39" s="2" t="str">
         <f>Input!$E$8&amp;" - BS"</f>
         <v>FCX - BS</v>
       </c>
       <c r="J39" s="5"/>
     </row>
-    <row r="40" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:32" x14ac:dyDescent="0.2">
       <c r="E40" s="6" t="str">
         <f>+Input!$E$14</f>
         <v>$mn</v>
@@ -3385,9 +3480,10 @@
       <c r="T40" s="17" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="41" spans="3:31" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="U40" s="17"/>
+    </row>
+    <row r="41" spans="3:32" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="3:32" x14ac:dyDescent="0.2">
       <c r="E42" s="2" t="s">
         <v>22</v>
       </c>
@@ -3397,7 +3493,7 @@
       <c r="I42" s="12"/>
       <c r="J42" s="12"/>
     </row>
-    <row r="43" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:32" x14ac:dyDescent="0.2">
       <c r="E43" s="10" t="s">
         <v>49</v>
       </c>
@@ -3407,7 +3503,7 @@
       <c r="I43" s="12"/>
       <c r="J43" s="12"/>
     </row>
-    <row r="44" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:32" x14ac:dyDescent="0.2">
       <c r="E44" s="10" t="s">
         <v>50</v>
       </c>
@@ -3417,7 +3513,7 @@
       <c r="I44" s="12"/>
       <c r="J44" s="12"/>
     </row>
-    <row r="45" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:32" x14ac:dyDescent="0.2">
       <c r="E45" s="9"/>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
@@ -3425,14 +3521,14 @@
       <c r="I45" s="12"/>
       <c r="J45" s="12"/>
     </row>
-    <row r="46" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:32" x14ac:dyDescent="0.2">
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
       <c r="I46" s="12"/>
       <c r="J46" s="12"/>
     </row>
-    <row r="47" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:32" x14ac:dyDescent="0.2">
       <c r="E47" s="4" t="s">
         <v>16</v>
       </c>
@@ -3450,8 +3546,9 @@
       <c r="R47" s="15"/>
       <c r="S47" s="15"/>
       <c r="T47" s="15"/>
-    </row>
-    <row r="48" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="U47" s="15"/>
+    </row>
+    <row r="48" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C48" s="11" t="b" cm="1">
         <f t="array" ref="C48">AND(F48:J48&lt;$B$1,F48:J48&gt;-$B$1)</f>
         <v>1</v>
@@ -3473,22 +3570,23 @@
       <c r="R48" s="15"/>
       <c r="S48" s="15"/>
       <c r="T48" s="15"/>
-    </row>
-    <row r="49" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="15"/>
+    </row>
+    <row r="49" spans="5:21" x14ac:dyDescent="0.2">
       <c r="F49" s="12"/>
       <c r="G49" s="12"/>
       <c r="H49" s="12"/>
       <c r="I49" s="12"/>
       <c r="J49" s="12"/>
     </row>
-    <row r="50" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E50" s="2" t="str">
         <f>Input!$E$8&amp;" - CF"</f>
         <v>FCX - CF</v>
       </c>
       <c r="J50" s="5"/>
     </row>
-    <row r="51" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="51" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E51" s="6" t="str">
         <f>+Input!$E$14</f>
         <v>$mn</v>
@@ -3535,9 +3633,10 @@
       <c r="T51" s="17" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="52" spans="5:20" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="17"/>
+    </row>
+    <row r="52" spans="5:21" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E53" s="9" t="s">
         <v>52</v>
       </c>
@@ -3547,7 +3646,7 @@
       <c r="I53" s="12"/>
       <c r="J53" s="12"/>
     </row>
-    <row r="54" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="54" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E54" s="9" t="s">
         <v>51</v>
       </c>
@@ -3565,25 +3664,26 @@
       <c r="R54" s="14"/>
       <c r="S54" s="14"/>
       <c r="T54" s="14"/>
-    </row>
-    <row r="55" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="35"/>
+    </row>
+    <row r="55" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E55" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F55" s="13">
-        <f t="shared" ref="F55:I55" si="34">+F53+F54</f>
+        <f t="shared" ref="F55:I55" si="35">+F53+F54</f>
         <v>0</v>
       </c>
       <c r="G55" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H55" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="I55" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="J55" s="13">
@@ -3591,43 +3691,44 @@
         <v>0</v>
       </c>
       <c r="L55" s="13">
-        <f t="shared" ref="L55:T55" si="35">+L53+L54</f>
+        <f t="shared" ref="L55:T55" si="36">+L53+L54</f>
         <v>0</v>
       </c>
       <c r="M55" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="N55" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O55" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="P55" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Q55" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="R55" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="S55" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="T55" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="13"/>
+    </row>
+    <row r="56" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E56" s="9" t="s">
         <v>53</v>
       </c>
@@ -3637,42 +3738,42 @@
       <c r="I56" s="12"/>
       <c r="J56" s="12"/>
     </row>
-    <row r="59" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="5:21" x14ac:dyDescent="0.2">
       <c r="F59" s="12"/>
       <c r="G59" s="12"/>
       <c r="H59" s="12"/>
       <c r="I59" s="12"/>
       <c r="J59" s="12"/>
     </row>
-    <row r="60" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="5:21" x14ac:dyDescent="0.2">
       <c r="F60" s="12"/>
       <c r="G60" s="12"/>
       <c r="H60" s="12"/>
       <c r="I60" s="12"/>
       <c r="J60" s="12"/>
     </row>
-    <row r="61" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="5:21" x14ac:dyDescent="0.2">
       <c r="F61" s="12"/>
       <c r="G61" s="12"/>
       <c r="H61" s="12"/>
       <c r="I61" s="12"/>
       <c r="J61" s="12"/>
     </row>
-    <row r="62" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="5:21" x14ac:dyDescent="0.2">
       <c r="F62" s="12"/>
       <c r="G62" s="12"/>
       <c r="H62" s="12"/>
       <c r="I62" s="12"/>
       <c r="J62" s="12"/>
     </row>
-    <row r="63" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="5:21" x14ac:dyDescent="0.2">
       <c r="F63" s="12"/>
       <c r="G63" s="12"/>
       <c r="H63" s="12"/>
       <c r="I63" s="12"/>
       <c r="J63" s="12"/>
     </row>
-    <row r="64" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="64" spans="5:21" x14ac:dyDescent="0.2">
       <c r="F64" s="12"/>
       <c r="G64" s="12"/>
       <c r="H64" s="12"/>

--- a/FCX.xlsx
+++ b/FCX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konst\Development\valuations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF26B9E-D153-4325-A46F-CC7892A02538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C038087-7AEC-47D5-88EF-ADA9F5F52638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="19020" windowHeight="20985" tabRatio="767" activeTab="3" xr2:uid="{A454576F-BA0E-4C95-85A1-1E0F525C6E61}"/>
   </bookViews>
@@ -658,7 +658,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -774,6 +774,7 @@
     <xf numFmtId="0" fontId="9" fillId="1" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1380,8 +1381,8 @@
   </sheetPr>
   <dimension ref="A1:AF750"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -1389,11 +1390,9 @@
     <col min="1" max="3" width="9.140625" style="4" customWidth="1" outlineLevel="1"/>
     <col min="4" max="4" width="2.28515625" customWidth="1"/>
     <col min="5" max="5" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="8.85546875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="2.85546875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="17" width="8.85546875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="8.85546875" customWidth="1" collapsed="1"/>
-    <col min="19" max="20" width="8.85546875" customWidth="1"/>
+    <col min="6" max="10" width="8.85546875" customWidth="1"/>
+    <col min="11" max="11" width="2.85546875" customWidth="1"/>
+    <col min="12" max="20" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:32" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1425,6 +1424,9 @@
         <v>Educational purposes only, no financial advice</v>
       </c>
     </row>
+    <row r="7" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="V7" s="12"/>
+    </row>
     <row r="8" spans="2:32" x14ac:dyDescent="0.2">
       <c r="E8" s="2" t="str">
         <f>Input!$E$8&amp;" - P&amp;L"</f>
@@ -1648,7 +1650,7 @@
         <v>-4077</v>
       </c>
       <c r="S12" s="50">
-        <f t="shared" ref="S12:S13" si="0">J12-SUM(P12:R12)</f>
+        <f>J12-SUM(P12:R12)</f>
         <v>-3758</v>
       </c>
       <c r="T12" s="46">
@@ -1712,7 +1714,7 @@
         <v>-600</v>
       </c>
       <c r="S13" s="51">
-        <f t="shared" si="0"/>
+        <f>J13-SUM(P13:R13)</f>
         <v>-537</v>
       </c>
       <c r="T13" s="47">
@@ -1738,35 +1740,35 @@
         <v>88</v>
       </c>
       <c r="F14" s="14">
-        <f t="shared" ref="F14:L14" si="1">SUM(F12:F13)</f>
+        <f t="shared" ref="F14:L14" si="0">SUM(F12:F13)</f>
         <v>-11655</v>
       </c>
       <c r="G14" s="14">
-        <f t="shared" ref="G14" si="2">SUM(G12:G13)</f>
+        <f t="shared" ref="G14" si="1">SUM(G12:G13)</f>
         <v>-14030</v>
       </c>
       <c r="H14" s="14">
-        <f t="shared" ref="H14" si="3">SUM(H12:H13)</f>
+        <f t="shared" ref="H14" si="2">SUM(H12:H13)</f>
         <v>-15089</v>
       </c>
       <c r="I14" s="14">
-        <f t="shared" ref="I14" si="4">SUM(I12:I13)</f>
+        <f t="shared" ref="I14" si="3">SUM(I12:I13)</f>
         <v>-15695</v>
       </c>
       <c r="J14" s="14">
-        <f t="shared" ref="J14" si="5">SUM(J12:J13)</f>
+        <f t="shared" ref="J14" si="4">SUM(J12:J13)</f>
         <v>-17795</v>
       </c>
       <c r="L14" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-3564</v>
       </c>
       <c r="M14" s="14">
-        <f t="shared" ref="M14" si="6">SUM(M12:M13)</f>
+        <f t="shared" ref="M14" si="5">SUM(M12:M13)</f>
         <v>-4096</v>
       </c>
       <c r="N14" s="14">
-        <f t="shared" ref="N14" si="7">SUM(N12:N13)</f>
+        <f t="shared" ref="N14" si="6">SUM(N12:N13)</f>
         <v>-4086</v>
       </c>
       <c r="O14" s="51">
@@ -1774,27 +1776,27 @@
         <v>-3949</v>
       </c>
       <c r="P14" s="14">
-        <f t="shared" ref="P14" si="8">SUM(P12:P13)</f>
+        <f t="shared" ref="P14" si="7">SUM(P12:P13)</f>
         <v>-4439</v>
       </c>
       <c r="Q14" s="14">
-        <f t="shared" ref="Q14" si="9">SUM(Q12:Q13)</f>
+        <f t="shared" ref="Q14" si="8">SUM(Q12:Q13)</f>
         <v>-4384</v>
       </c>
       <c r="R14" s="14">
-        <f t="shared" ref="R14" si="10">SUM(R12:R13)</f>
+        <f t="shared" ref="R14" si="9">SUM(R12:R13)</f>
         <v>-4677</v>
       </c>
       <c r="S14" s="51">
-        <f t="shared" ref="S14" si="11">SUM(S12:S13)</f>
+        <f t="shared" ref="S14" si="10">SUM(S12:S13)</f>
         <v>-4295</v>
       </c>
       <c r="T14" s="14">
-        <f t="shared" ref="T14:U14" si="12">SUM(T12:T13)</f>
+        <f t="shared" ref="T14:U14" si="11">SUM(T12:T13)</f>
         <v>-4222</v>
       </c>
       <c r="U14" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-4950</v>
       </c>
       <c r="V14" s="61"/>
@@ -1818,19 +1820,19 @@
         <v>2543</v>
       </c>
       <c r="G15" s="13">
-        <f t="shared" ref="G15:J15" si="13">SUM(G14,G11)</f>
+        <f t="shared" ref="G15:J15" si="12">SUM(G14,G11)</f>
         <v>8815</v>
       </c>
       <c r="H15" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>7691</v>
       </c>
       <c r="I15" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>7160</v>
       </c>
       <c r="J15" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>7660</v>
       </c>
       <c r="L15" s="13">
@@ -1838,11 +1840,11 @@
         <v>1825</v>
       </c>
       <c r="M15" s="13">
-        <f t="shared" ref="M15:U15" si="14">SUM(M14,M11)</f>
+        <f t="shared" ref="M15:U15" si="13">SUM(M14,M11)</f>
         <v>1641</v>
       </c>
       <c r="N15" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1738</v>
       </c>
       <c r="O15" s="49">
@@ -1850,62 +1852,40 @@
         <v>1956</v>
       </c>
       <c r="P15" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1882</v>
       </c>
       <c r="Q15" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>2240</v>
       </c>
       <c r="R15" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>2113</v>
       </c>
       <c r="S15" s="49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1425</v>
       </c>
       <c r="T15" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1506</v>
       </c>
       <c r="U15" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>2632</v>
       </c>
-      <c r="V15" s="45">
-        <v>2440</v>
-      </c>
-      <c r="W15" s="45">
-        <v>2783</v>
-      </c>
-      <c r="X15" s="45">
-        <v>3074</v>
-      </c>
-      <c r="Y15" s="45">
-        <v>2841</v>
-      </c>
-      <c r="Z15" s="45">
-        <v>3082</v>
-      </c>
-      <c r="AA15" s="45">
-        <v>3366</v>
-      </c>
-      <c r="AB15" s="45">
-        <v>3654</v>
-      </c>
-      <c r="AC15" s="45">
-        <v>3164</v>
-      </c>
-      <c r="AD15" s="45">
-        <v>3137</v>
-      </c>
-      <c r="AE15" s="45">
-        <v>3108</v>
-      </c>
-      <c r="AF15" s="45">
-        <v>3045</v>
-      </c>
+      <c r="V15" s="61"/>
+      <c r="W15" s="61"/>
+      <c r="X15" s="61"/>
+      <c r="Y15" s="61"/>
+      <c r="Z15" s="61"/>
+      <c r="AA15" s="61"/>
+      <c r="AB15" s="61"/>
+      <c r="AC15" s="61"/>
+      <c r="AD15" s="61"/>
+      <c r="AE15" s="61"/>
+      <c r="AF15" s="61"/>
     </row>
     <row r="16" spans="2:32" x14ac:dyDescent="0.2">
       <c r="E16" s="9" t="s">
@@ -1949,7 +1929,7 @@
         <v>-117</v>
       </c>
       <c r="S16" s="50">
-        <f t="shared" ref="S16:S18" si="15">J16-SUM(P16:R16)</f>
+        <f>J16-SUM(P16:R16)</f>
         <v>-129</v>
       </c>
       <c r="T16" s="46">
@@ -2012,7 +1992,7 @@
         <v>-38</v>
       </c>
       <c r="S17" s="50">
-        <f t="shared" si="15"/>
+        <f>J17-SUM(P17:R17)</f>
         <v>-41</v>
       </c>
       <c r="T17" s="46">
@@ -2076,7 +2056,7 @@
         <v>-20</v>
       </c>
       <c r="S18" s="51">
-        <f t="shared" si="15"/>
+        <f>J18-SUM(P18:R18)</f>
         <v>-12</v>
       </c>
       <c r="T18" s="47">
@@ -2305,7 +2285,7 @@
         <v>-72</v>
       </c>
       <c r="S21" s="53">
-        <f t="shared" ref="S21:S22" si="16">J21-SUM(P21:R21)</f>
+        <f>J21-SUM(P21:R21)</f>
         <v>-70</v>
       </c>
       <c r="T21" s="48">
@@ -2380,7 +2360,7 @@
         <v>107</v>
       </c>
       <c r="S22" s="51">
-        <f t="shared" si="16"/>
+        <f>J22-SUM(P22:R22)</f>
         <v>68</v>
       </c>
       <c r="T22" s="47">
@@ -2408,35 +2388,35 @@
         <v>13</v>
       </c>
       <c r="F23" s="13">
-        <f t="shared" ref="F23" si="17">SUM(F20:F22)</f>
+        <f t="shared" ref="F23" si="14">SUM(F20:F22)</f>
         <v>1809</v>
       </c>
       <c r="G23" s="13">
-        <f t="shared" ref="G23" si="18">SUM(G20:G22)</f>
+        <f t="shared" ref="G23" si="15">SUM(G20:G22)</f>
         <v>7664</v>
       </c>
       <c r="H23" s="13">
-        <f t="shared" ref="H23" si="19">SUM(H20:H22)</f>
+        <f t="shared" ref="H23" si="16">SUM(H20:H22)</f>
         <v>6746</v>
       </c>
       <c r="I23" s="13">
-        <f t="shared" ref="I23" si="20">SUM(I20:I22)</f>
+        <f t="shared" ref="I23" si="17">SUM(I20:I22)</f>
         <v>6021</v>
       </c>
       <c r="J23" s="13">
-        <f t="shared" ref="J23" si="21">SUM(J20:J22)</f>
+        <f t="shared" ref="J23" si="18">SUM(J20:J22)</f>
         <v>6922</v>
       </c>
       <c r="L23" s="13">
-        <f t="shared" ref="L23:S23" si="22">SUM(L20:L22)</f>
+        <f t="shared" ref="L23:S23" si="19">SUM(L20:L22)</f>
         <v>1548</v>
       </c>
       <c r="M23" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>1270</v>
       </c>
       <c r="N23" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>1472</v>
       </c>
       <c r="O23" s="49">
@@ -2444,19 +2424,19 @@
         <v>1731</v>
       </c>
       <c r="P23" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>1674</v>
       </c>
       <c r="Q23" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>2034</v>
       </c>
       <c r="R23" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>1973</v>
       </c>
       <c r="S23" s="49">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>1241</v>
       </c>
       <c r="T23" s="13">
@@ -2521,7 +2501,7 @@
         <v>-737</v>
       </c>
       <c r="S24" s="50">
-        <f t="shared" ref="S24:S25" si="23">J24-SUM(P24:R24)</f>
+        <f>J24-SUM(P24:R24)</f>
         <v>-520</v>
       </c>
       <c r="T24" s="46">
@@ -2584,7 +2564,7 @@
         <v>-710</v>
       </c>
       <c r="S25" s="50">
-        <f t="shared" si="23"/>
+        <f>J25-SUM(P25:R25)</f>
         <v>-447</v>
       </c>
       <c r="T25" s="46">
@@ -2610,35 +2590,35 @@
         <v>91</v>
       </c>
       <c r="F26" s="16">
-        <f t="shared" ref="F26:J26" si="24">SUM(F23:F25)</f>
+        <f t="shared" ref="F26:J26" si="20">SUM(F23:F25)</f>
         <v>599</v>
       </c>
       <c r="G26" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>4306</v>
       </c>
       <c r="H26" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>3468</v>
       </c>
       <c r="I26" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>1848</v>
       </c>
       <c r="J26" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>1889</v>
       </c>
       <c r="L26" s="16">
-        <f t="shared" ref="L26" si="25">SUM(L23:L25)</f>
+        <f t="shared" ref="L26" si="21">SUM(L23:L25)</f>
         <v>663</v>
       </c>
       <c r="M26" s="16">
-        <f t="shared" ref="M26" si="26">SUM(M23:M25)</f>
+        <f t="shared" ref="M26" si="22">SUM(M23:M25)</f>
         <v>343</v>
       </c>
       <c r="N26" s="16">
-        <f t="shared" ref="N26" si="27">SUM(N23:N25)</f>
+        <f t="shared" ref="N26" si="23">SUM(N23:N25)</f>
         <v>454</v>
       </c>
       <c r="O26" s="54">
@@ -2646,27 +2626,27 @@
         <v>388</v>
       </c>
       <c r="P26" s="16">
-        <f t="shared" ref="P26" si="28">SUM(P23:P25)</f>
+        <f t="shared" ref="P26" si="24">SUM(P23:P25)</f>
         <v>473</v>
       </c>
       <c r="Q26" s="16">
-        <f t="shared" ref="Q26" si="29">SUM(Q23:Q25)</f>
+        <f t="shared" ref="Q26" si="25">SUM(Q23:Q25)</f>
         <v>616</v>
       </c>
       <c r="R26" s="16">
-        <f t="shared" ref="R26" si="30">SUM(R23:R25)</f>
+        <f t="shared" ref="R26" si="26">SUM(R23:R25)</f>
         <v>526</v>
       </c>
       <c r="S26" s="54">
-        <f t="shared" ref="S26" si="31">SUM(S23:S25)</f>
+        <f t="shared" ref="S26" si="27">SUM(S23:S25)</f>
         <v>274</v>
       </c>
       <c r="T26" s="16">
-        <f t="shared" ref="T26:U26" si="32">SUM(T23:T25)</f>
+        <f t="shared" ref="T26:U26" si="28">SUM(T23:T25)</f>
         <v>352</v>
       </c>
       <c r="U26" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>772</v>
       </c>
       <c r="V26" s="64">
@@ -2825,104 +2805,104 @@
         <v>0.17910973376531905</v>
       </c>
       <c r="G29" s="20">
-        <f t="shared" ref="G29:AF29" si="33">+G15/G11</f>
+        <f t="shared" ref="G29:AF29" si="29">+G15/G11</f>
         <v>0.38586123878310352</v>
       </c>
       <c r="H29" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.33762071992976295</v>
       </c>
       <c r="I29" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.31327936994093197</v>
       </c>
       <c r="J29" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.30092319780003929</v>
       </c>
       <c r="L29" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.33865281128224162</v>
       </c>
       <c r="M29" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.28603799895415721</v>
       </c>
       <c r="N29" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.29842032967032966</v>
       </c>
       <c r="O29" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.33124470787468246</v>
       </c>
       <c r="P29" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.29773769973105524</v>
       </c>
       <c r="Q29" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.33816425120772947</v>
       </c>
       <c r="R29" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.31119293078055965</v>
       </c>
       <c r="S29" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.24912587412587411</v>
       </c>
       <c r="T29" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.26291899441340782</v>
       </c>
       <c r="U29" s="20">
-        <f t="shared" ref="U29" si="34">+U15/U11</f>
+        <f t="shared" ref="U29" si="30">+U15/U11</f>
         <v>0.3471379583223424</v>
       </c>
       <c r="V29" s="20">
-        <f t="shared" si="33"/>
-        <v>0.33931303017660963</v>
+        <f t="shared" si="29"/>
+        <v>0</v>
       </c>
       <c r="W29" s="20">
-        <f t="shared" si="33"/>
-        <v>0.36441010868141943</v>
+        <f t="shared" si="29"/>
+        <v>0</v>
       </c>
       <c r="X29" s="20">
-        <f t="shared" si="33"/>
-        <v>0.40559440559440557</v>
+        <f t="shared" si="29"/>
+        <v>0</v>
       </c>
       <c r="Y29" s="20">
-        <f t="shared" si="33"/>
-        <v>0.38537710255018992</v>
+        <f t="shared" si="29"/>
+        <v>0</v>
       </c>
       <c r="Z29" s="20">
-        <f t="shared" si="33"/>
-        <v>0.38568389438117884</v>
+        <f t="shared" si="29"/>
+        <v>0</v>
       </c>
       <c r="AA29" s="20">
-        <f t="shared" si="33"/>
-        <v>0.40219859003465169</v>
+        <f t="shared" si="29"/>
+        <v>0</v>
       </c>
       <c r="AB29" s="20">
-        <f t="shared" si="33"/>
-        <v>0.41937335016641797</v>
+        <f t="shared" si="29"/>
+        <v>0</v>
       </c>
       <c r="AC29" s="20">
-        <f t="shared" si="33"/>
-        <v>0.38779262164480943</v>
+        <f t="shared" si="29"/>
+        <v>0</v>
       </c>
       <c r="AD29" s="20">
-        <f t="shared" si="33"/>
-        <v>0.38228125761637827</v>
+        <f t="shared" si="29"/>
+        <v>0</v>
       </c>
       <c r="AE29" s="20">
-        <f t="shared" si="33"/>
-        <v>0.37668161434977576</v>
+        <f t="shared" si="29"/>
+        <v>0</v>
       </c>
       <c r="AF29" s="20">
-        <f t="shared" si="33"/>
-        <v>0.37079883097905503</v>
+        <f t="shared" si="29"/>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.2">
@@ -3327,7 +3307,10 @@
       <c r="U36" s="15">
         <v>772</v>
       </c>
-      <c r="V36" s="12"/>
+      <c r="V36" s="12">
+        <f>U26-V26</f>
+        <v>108</v>
+      </c>
       <c r="W36" s="12"/>
       <c r="X36" s="12"/>
       <c r="Y36" s="12"/>
@@ -3407,7 +3390,10 @@
         <f>+U36-U26</f>
         <v>0</v>
       </c>
-      <c r="V37" s="12"/>
+      <c r="V37" s="65">
+        <f>+V36/V26</f>
+        <v>0.16265060240963855</v>
+      </c>
       <c r="W37" s="12"/>
       <c r="X37" s="12"/>
       <c r="Y37" s="12"/>
@@ -3671,19 +3657,19 @@
         <v>23</v>
       </c>
       <c r="F55" s="13">
-        <f t="shared" ref="F55:I55" si="35">+F53+F54</f>
+        <f t="shared" ref="F55:I55" si="31">+F53+F54</f>
         <v>0</v>
       </c>
       <c r="G55" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="H55" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="I55" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="J55" s="13">
@@ -3691,39 +3677,39 @@
         <v>0</v>
       </c>
       <c r="L55" s="13">
-        <f t="shared" ref="L55:T55" si="36">+L53+L54</f>
+        <f t="shared" ref="L55:T55" si="32">+L53+L54</f>
         <v>0</v>
       </c>
       <c r="M55" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N55" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="O55" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="P55" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="Q55" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="R55" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="S55" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="T55" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="U55" s="13"/>

--- a/FCX.xlsx
+++ b/FCX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konst\Development\valuations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C038087-7AEC-47D5-88EF-ADA9F5F52638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9F202D-088F-4D39-857E-83E7CE52154B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19020" windowHeight="20985" tabRatio="767" activeTab="3" xr2:uid="{A454576F-BA0E-4C95-85A1-1E0F525C6E61}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19020" windowHeight="20985" tabRatio="767" activeTab="5" xr2:uid="{A454576F-BA0E-4C95-85A1-1E0F525C6E61}"/>
   </bookViews>
   <sheets>
     <sheet name="Disclaimer" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="WORKINGS&gt;&gt;" sheetId="9" r:id="rId3"/>
     <sheet name="Historical" sheetId="10" r:id="rId4"/>
     <sheet name="INPUT&gt;&gt;" sheetId="6" r:id="rId5"/>
+    <sheet name="Q2_earnings_call_notes" sheetId="11" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="112">
   <si>
     <r>
       <t xml:space="preserve">This Excel file is intended </t>
@@ -398,6 +399,45 @@
   </si>
   <si>
     <t>Gross-margin</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Jun 25</t>
+  </si>
+  <si>
+    <t>Copper is in the focus of the world</t>
+  </si>
+  <si>
+    <t>FCX is the dominant producer in the US (&gt;70% market share)</t>
+  </si>
+  <si>
+    <t>Startup of Indonesian smelter</t>
+  </si>
+  <si>
+    <t>Fully integrated producer globally</t>
+  </si>
+  <si>
+    <t>copper sales will be 10% higher than in first halve year</t>
+  </si>
+  <si>
+    <t>Additional margins and CF</t>
+  </si>
+  <si>
+    <t>Volume growth and lower costs for 2026</t>
+  </si>
+  <si>
+    <t>2.9mn shares were bought back in H1</t>
+  </si>
+  <si>
+    <t>50% of FCF are supposed to be used for share buybacks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decreased reliance on contractors </t>
+  </si>
+  <si>
+    <t>till minute 20</t>
   </si>
 </sst>
 </file>
@@ -1379,10 +1419,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:AF750"/>
+  <dimension ref="A1:AF751"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView showGridLines="0" topLeftCell="J4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P46" sqref="P46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -3466,48 +3506,97 @@
       <c r="T40" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="U40" s="17"/>
+      <c r="U40" s="17" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="41" spans="3:32" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="42" spans="3:32" x14ac:dyDescent="0.2">
-      <c r="E42" s="2" t="s">
-        <v>22</v>
+      <c r="E42" s="39" t="s">
+        <v>99</v>
       </c>
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
       <c r="J42" s="12"/>
+      <c r="L42" s="46"/>
+      <c r="M42" s="46"/>
+      <c r="N42" s="46"/>
+      <c r="O42" s="46"/>
+      <c r="P42" s="46"/>
+      <c r="Q42" s="46">
+        <v>5273</v>
+      </c>
+      <c r="R42" s="46"/>
+      <c r="S42" s="46"/>
+      <c r="T42" s="46"/>
+      <c r="U42" s="46">
+        <v>4490</v>
+      </c>
     </row>
     <row r="43" spans="3:32" x14ac:dyDescent="0.2">
-      <c r="E43" s="10" t="s">
-        <v>49</v>
+      <c r="E43" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
       <c r="J43" s="12"/>
+      <c r="L43" s="46"/>
+      <c r="M43" s="46"/>
+      <c r="N43" s="46"/>
+      <c r="O43" s="46"/>
+      <c r="P43" s="46"/>
+      <c r="Q43" s="46"/>
+      <c r="R43" s="46"/>
+      <c r="S43" s="46"/>
+      <c r="T43" s="46"/>
+      <c r="U43" s="46"/>
     </row>
     <row r="44" spans="3:32" x14ac:dyDescent="0.2">
       <c r="E44" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
       <c r="J44" s="12"/>
+      <c r="L44" s="46"/>
+      <c r="M44" s="46"/>
+      <c r="N44" s="46"/>
+      <c r="O44" s="46"/>
+      <c r="P44" s="46"/>
+      <c r="Q44" s="46"/>
+      <c r="R44" s="46"/>
+      <c r="S44" s="46"/>
+      <c r="T44" s="46"/>
+      <c r="U44" s="46"/>
     </row>
     <row r="45" spans="3:32" x14ac:dyDescent="0.2">
-      <c r="E45" s="9"/>
+      <c r="E45" s="10" t="s">
+        <v>50</v>
+      </c>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
       <c r="I45" s="12"/>
       <c r="J45" s="12"/>
+      <c r="L45" s="46"/>
+      <c r="M45" s="46"/>
+      <c r="N45" s="46"/>
+      <c r="O45" s="46"/>
+      <c r="P45" s="46"/>
+      <c r="Q45" s="46"/>
+      <c r="R45" s="46"/>
+      <c r="S45" s="46"/>
+      <c r="T45" s="46"/>
+      <c r="U45" s="46"/>
     </row>
     <row r="46" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="E46" s="9"/>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
@@ -3515,32 +3604,15 @@
       <c r="J46" s="12"/>
     </row>
     <row r="47" spans="3:32" x14ac:dyDescent="0.2">
-      <c r="E47" s="4" t="s">
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+    </row>
+    <row r="48" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="E48" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="15"/>
-      <c r="L47" s="15"/>
-      <c r="M47" s="15"/>
-      <c r="N47" s="15"/>
-      <c r="O47" s="15"/>
-      <c r="P47" s="15"/>
-      <c r="Q47" s="15"/>
-      <c r="R47" s="15"/>
-      <c r="S47" s="15"/>
-      <c r="T47" s="15"/>
-      <c r="U47" s="15"/>
-    </row>
-    <row r="48" spans="3:32" x14ac:dyDescent="0.2">
-      <c r="C48" s="11" t="b" cm="1">
-        <f t="array" ref="C48">AND(F48:J48&lt;$B$1,F48:J48&gt;-$B$1)</f>
-        <v>1</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="F48" s="15"/>
       <c r="G48" s="15"/>
@@ -3558,208 +3630,227 @@
       <c r="T48" s="15"/>
       <c r="U48" s="15"/>
     </row>
-    <row r="49" spans="5:21" x14ac:dyDescent="0.2">
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12"/>
-    </row>
-    <row r="50" spans="5:21" x14ac:dyDescent="0.2">
-      <c r="E50" s="2" t="str">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C49" s="11" t="b" cm="1">
+        <f t="array" ref="C49">AND(F49:J49&lt;$B$1,F49:J49&gt;-$B$1)</f>
+        <v>1</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="15"/>
+      <c r="P49" s="15"/>
+      <c r="Q49" s="15"/>
+      <c r="R49" s="15"/>
+      <c r="S49" s="15"/>
+      <c r="T49" s="15"/>
+      <c r="U49" s="15"/>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E51" s="2" t="str">
         <f>Input!$E$8&amp;" - CF"</f>
         <v>FCX - CF</v>
       </c>
-      <c r="J50" s="5"/>
-    </row>
-    <row r="51" spans="5:21" x14ac:dyDescent="0.2">
-      <c r="E51" s="6" t="str">
+      <c r="J51" s="5"/>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E52" s="6" t="str">
         <f>+Input!$E$14</f>
         <v>$mn</v>
       </c>
-      <c r="F51" s="17" t="s">
+      <c r="F52" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G51" s="17" t="s">
+      <c r="G52" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H51" s="17" t="s">
+      <c r="H52" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I51" s="17" t="s">
+      <c r="I52" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J51" s="17" t="s">
+      <c r="J52" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="L51" s="17" t="s">
+      <c r="L52" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="M51" s="17" t="s">
+      <c r="M52" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="N51" s="17" t="s">
+      <c r="N52" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="O51" s="17" t="s">
+      <c r="O52" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="P51" s="17" t="s">
+      <c r="P52" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="Q51" s="17" t="s">
+      <c r="Q52" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="R51" s="17" t="s">
+      <c r="R52" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="S51" s="17" t="s">
+      <c r="S52" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="T51" s="17" t="s">
+      <c r="T52" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="U51" s="17"/>
-    </row>
-    <row r="52" spans="5:21" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" spans="5:21" x14ac:dyDescent="0.2">
-      <c r="E53" s="9" t="s">
+      <c r="U52" s="17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E54" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="12"/>
-    </row>
-    <row r="54" spans="5:21" x14ac:dyDescent="0.2">
-      <c r="E54" s="9" t="s">
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E55" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14"/>
-      <c r="L54" s="14"/>
-      <c r="M54" s="14"/>
-      <c r="N54" s="14"/>
-      <c r="O54" s="14"/>
-      <c r="P54" s="14"/>
-      <c r="Q54" s="14"/>
-      <c r="R54" s="14"/>
-      <c r="S54" s="14"/>
-      <c r="T54" s="14"/>
-      <c r="U54" s="35"/>
-    </row>
-    <row r="55" spans="5:21" x14ac:dyDescent="0.2">
-      <c r="E55" s="2" t="s">
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="14"/>
+      <c r="N55" s="14"/>
+      <c r="O55" s="14"/>
+      <c r="P55" s="14"/>
+      <c r="Q55" s="14"/>
+      <c r="R55" s="14"/>
+      <c r="S55" s="14"/>
+      <c r="T55" s="14"/>
+      <c r="U55" s="35"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E56" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F55" s="13">
-        <f t="shared" ref="F55:I55" si="31">+F53+F54</f>
+      <c r="F56" s="13">
+        <f t="shared" ref="F56:I56" si="31">+F54+F55</f>
         <v>0</v>
       </c>
-      <c r="G55" s="13">
+      <c r="G56" s="13">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="H55" s="13">
+      <c r="H56" s="13">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="I55" s="13">
+      <c r="I56" s="13">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="J55" s="13">
-        <f>+J53+J54</f>
+      <c r="J56" s="13">
+        <f>+J54+J55</f>
         <v>0</v>
       </c>
-      <c r="L55" s="13">
-        <f t="shared" ref="L55:T55" si="32">+L53+L54</f>
+      <c r="L56" s="13">
+        <f t="shared" ref="L56:T56" si="32">+L54+L55</f>
         <v>0</v>
       </c>
-      <c r="M55" s="13">
+      <c r="M56" s="13">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="N55" s="13">
+      <c r="N56" s="13">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="O55" s="13">
+      <c r="O56" s="13">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="P55" s="13">
+      <c r="P56" s="13">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="Q55" s="13">
+      <c r="Q56" s="13">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="R55" s="13">
+      <c r="R56" s="13">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="S55" s="13">
+      <c r="S56" s="13">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="T55" s="13">
+      <c r="T56" s="13">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="U55" s="13"/>
-    </row>
-    <row r="56" spans="5:21" x14ac:dyDescent="0.2">
-      <c r="E56" s="9" t="s">
+      <c r="U56" s="13"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E57" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="12"/>
-    </row>
-    <row r="59" spans="5:21" x14ac:dyDescent="0.2">
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="12"/>
-    </row>
-    <row r="60" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="F60" s="12"/>
       <c r="G60" s="12"/>
       <c r="H60" s="12"/>
       <c r="I60" s="12"/>
       <c r="J60" s="12"/>
     </row>
-    <row r="61" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="F61" s="12"/>
       <c r="G61" s="12"/>
       <c r="H61" s="12"/>
       <c r="I61" s="12"/>
       <c r="J61" s="12"/>
     </row>
-    <row r="62" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="F62" s="12"/>
       <c r="G62" s="12"/>
       <c r="H62" s="12"/>
       <c r="I62" s="12"/>
       <c r="J62" s="12"/>
     </row>
-    <row r="63" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="F63" s="12"/>
       <c r="G63" s="12"/>
       <c r="H63" s="12"/>
       <c r="I63" s="12"/>
       <c r="J63" s="12"/>
     </row>
-    <row r="64" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="F64" s="12"/>
       <c r="G64" s="12"/>
       <c r="H64" s="12"/>
@@ -8567,6 +8658,13 @@
       <c r="H750" s="12"/>
       <c r="I750" s="12"/>
       <c r="J750" s="12"/>
+    </row>
+    <row r="751" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F751" s="12"/>
+      <c r="G751" s="12"/>
+      <c r="H751" s="12"/>
+      <c r="I751" s="12"/>
+      <c r="J751" s="12"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2">
@@ -8579,7 +8677,7 @@
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C48">
+  <conditionalFormatting sqref="C49">
     <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
@@ -8602,4 +8700,74 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E628ACCA-55C0-49BE-B8AF-DF2B2BD6A718}">
+  <dimension ref="C5:C16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/FCX.xlsx
+++ b/FCX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konst\Development\valuations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9F202D-088F-4D39-857E-83E7CE52154B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC3B823-E95E-477E-8DFF-B4237B5759A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19020" windowHeight="20985" tabRatio="767" activeTab="5" xr2:uid="{A454576F-BA0E-4C95-85A1-1E0F525C6E61}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" tabRatio="767" activeTab="3" xr2:uid="{A454576F-BA0E-4C95-85A1-1E0F525C6E61}"/>
   </bookViews>
   <sheets>
     <sheet name="Disclaimer" sheetId="2" r:id="rId1"/>
@@ -698,7 +698,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -772,31 +772,17 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="13" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -809,12 +795,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="1" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="1" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="1" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="1" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="9" fillId="1" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="1" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1421,8 +1406,8 @@
   </sheetPr>
   <dimension ref="A1:AF751"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="J4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P46" sqref="P46"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -1563,85 +1548,85 @@
       <c r="E11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="45">
+      <c r="F11" s="38">
         <v>14198</v>
       </c>
-      <c r="G11" s="45">
+      <c r="G11" s="38">
         <v>22845</v>
       </c>
-      <c r="H11" s="45">
+      <c r="H11" s="38">
         <v>22780</v>
       </c>
-      <c r="I11" s="45">
+      <c r="I11" s="38">
         <v>22855</v>
       </c>
-      <c r="J11" s="45">
+      <c r="J11" s="38">
         <v>25455</v>
       </c>
-      <c r="K11" s="44"/>
-      <c r="L11" s="45">
+      <c r="K11" s="37"/>
+      <c r="L11" s="38">
         <v>5389</v>
       </c>
-      <c r="M11" s="45">
+      <c r="M11" s="38">
         <v>5737</v>
       </c>
-      <c r="N11" s="45">
+      <c r="N11" s="38">
         <v>5824</v>
       </c>
-      <c r="O11" s="49">
+      <c r="O11" s="41">
         <f>I11-SUM(L11:N11)</f>
         <v>5905</v>
       </c>
-      <c r="P11" s="45">
+      <c r="P11" s="38">
         <v>6321</v>
       </c>
-      <c r="Q11" s="45">
+      <c r="Q11" s="38">
         <v>6624</v>
       </c>
-      <c r="R11" s="45">
+      <c r="R11" s="38">
         <v>6790</v>
       </c>
-      <c r="S11" s="49">
+      <c r="S11" s="41">
         <f>J11-SUM(P11:R11)</f>
         <v>5720</v>
       </c>
-      <c r="T11" s="45">
+      <c r="T11" s="38">
         <v>5728</v>
       </c>
-      <c r="U11" s="45">
+      <c r="U11" s="38">
         <v>7582</v>
       </c>
-      <c r="V11" s="45">
+      <c r="V11" s="38">
         <v>7191</v>
       </c>
-      <c r="W11" s="45">
+      <c r="W11" s="38">
         <v>7637</v>
       </c>
-      <c r="X11" s="45">
+      <c r="X11" s="38">
         <v>7579</v>
       </c>
-      <c r="Y11" s="45">
+      <c r="Y11" s="38">
         <v>7372</v>
       </c>
-      <c r="Z11" s="45">
+      <c r="Z11" s="38">
         <v>7991</v>
       </c>
-      <c r="AA11" s="45">
+      <c r="AA11" s="38">
         <v>8369</v>
       </c>
-      <c r="AB11" s="45">
+      <c r="AB11" s="38">
         <v>8713</v>
       </c>
-      <c r="AC11" s="45">
+      <c r="AC11" s="38">
         <v>8159</v>
       </c>
-      <c r="AD11" s="45">
+      <c r="AD11" s="38">
         <v>8206</v>
       </c>
-      <c r="AE11" s="45">
+      <c r="AE11" s="38">
         <v>8251</v>
       </c>
-      <c r="AF11" s="45">
+      <c r="AF11" s="38">
         <v>8212</v>
       </c>
     </row>
@@ -1649,134 +1634,134 @@
       <c r="E12" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F12" s="46">
+      <c r="F12" s="39">
         <f>-10031-96</f>
         <v>-10127</v>
       </c>
-      <c r="G12" s="46">
+      <c r="G12" s="39">
         <f>-12016-16</f>
         <v>-12032</v>
       </c>
-      <c r="H12" s="46">
+      <c r="H12" s="39">
         <v>-13070</v>
       </c>
-      <c r="I12" s="46">
+      <c r="I12" s="39">
         <v>-13627</v>
       </c>
-      <c r="J12" s="46">
+      <c r="J12" s="39">
         <v>-15554</v>
       </c>
-      <c r="K12" s="44"/>
-      <c r="L12" s="46">
+      <c r="K12" s="37"/>
+      <c r="L12" s="39">
         <v>-3165</v>
       </c>
-      <c r="M12" s="46">
+      <c r="M12" s="39">
         <v>-3549</v>
       </c>
-      <c r="N12" s="46">
+      <c r="N12" s="39">
         <v>-3553</v>
       </c>
-      <c r="O12" s="50">
+      <c r="O12" s="42">
         <f>I12-SUM(L12:N12)</f>
         <v>-3360</v>
       </c>
-      <c r="P12" s="46">
+      <c r="P12" s="39">
         <v>-3844</v>
       </c>
-      <c r="Q12" s="46">
+      <c r="Q12" s="39">
         <v>-3875</v>
       </c>
-      <c r="R12" s="46">
+      <c r="R12" s="39">
         <v>-4077</v>
       </c>
-      <c r="S12" s="50">
+      <c r="S12" s="42">
         <f>J12-SUM(P12:R12)</f>
         <v>-3758</v>
       </c>
-      <c r="T12" s="46">
+      <c r="T12" s="39">
         <v>-3756</v>
       </c>
-      <c r="U12" s="46">
+      <c r="U12" s="39">
         <v>-4282</v>
       </c>
-      <c r="V12" s="61"/>
-      <c r="W12" s="61"/>
-      <c r="X12" s="61"/>
-      <c r="Y12" s="61"/>
-      <c r="Z12" s="61"/>
-      <c r="AA12" s="61"/>
-      <c r="AB12" s="61"/>
-      <c r="AC12" s="61"/>
-      <c r="AD12" s="62"/>
-      <c r="AE12" s="62"/>
-      <c r="AF12" s="62"/>
+      <c r="V12" s="51"/>
+      <c r="W12" s="51"/>
+      <c r="X12" s="51"/>
+      <c r="Y12" s="51"/>
+      <c r="Z12" s="51"/>
+      <c r="AA12" s="51"/>
+      <c r="AB12" s="51"/>
+      <c r="AC12" s="51"/>
+      <c r="AD12" s="52"/>
+      <c r="AE12" s="52"/>
+      <c r="AF12" s="52"/>
     </row>
     <row r="13" spans="2:32" x14ac:dyDescent="0.2">
       <c r="E13" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="47">
+      <c r="F13" s="40">
         <v>-1528</v>
       </c>
-      <c r="G13" s="47">
+      <c r="G13" s="40">
         <v>-1998</v>
       </c>
-      <c r="H13" s="47">
+      <c r="H13" s="40">
         <v>-2019</v>
       </c>
-      <c r="I13" s="47">
+      <c r="I13" s="40">
         <v>-2068</v>
       </c>
-      <c r="J13" s="47">
+      <c r="J13" s="40">
         <v>-2241</v>
       </c>
-      <c r="K13" s="44"/>
-      <c r="L13" s="47">
+      <c r="K13" s="37"/>
+      <c r="L13" s="40">
         <v>-399</v>
       </c>
-      <c r="M13" s="47">
+      <c r="M13" s="40">
         <v>-547</v>
       </c>
-      <c r="N13" s="47">
+      <c r="N13" s="40">
         <v>-533</v>
       </c>
-      <c r="O13" s="51">
+      <c r="O13" s="43">
         <f>I13-SUM(L13:N13)</f>
         <v>-589</v>
       </c>
-      <c r="P13" s="47">
+      <c r="P13" s="40">
         <v>-595</v>
       </c>
-      <c r="Q13" s="47">
+      <c r="Q13" s="40">
         <v>-509</v>
       </c>
-      <c r="R13" s="47">
+      <c r="R13" s="40">
         <v>-600</v>
       </c>
-      <c r="S13" s="51">
+      <c r="S13" s="43">
         <f>J13-SUM(P13:R13)</f>
         <v>-537</v>
       </c>
-      <c r="T13" s="47">
+      <c r="T13" s="40">
         <v>-466</v>
       </c>
-      <c r="U13" s="47">
+      <c r="U13" s="40">
         <v>-668</v>
       </c>
-      <c r="V13" s="61"/>
-      <c r="W13" s="61"/>
-      <c r="X13" s="61"/>
-      <c r="Y13" s="61"/>
-      <c r="Z13" s="61"/>
-      <c r="AA13" s="61"/>
-      <c r="AB13" s="61"/>
-      <c r="AC13" s="61"/>
-      <c r="AD13" s="61"/>
-      <c r="AE13" s="61"/>
-      <c r="AF13" s="61"/>
+      <c r="V13" s="51"/>
+      <c r="W13" s="51"/>
+      <c r="X13" s="51"/>
+      <c r="Y13" s="51"/>
+      <c r="Z13" s="51"/>
+      <c r="AA13" s="51"/>
+      <c r="AB13" s="51"/>
+      <c r="AC13" s="51"/>
+      <c r="AD13" s="51"/>
+      <c r="AE13" s="51"/>
+      <c r="AF13" s="51"/>
     </row>
     <row r="14" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="E14" s="37" t="s">
+      <c r="E14" s="35" t="s">
         <v>88</v>
       </c>
       <c r="F14" s="14">
@@ -1811,7 +1796,7 @@
         <f t="shared" ref="N14" si="6">SUM(N12:N13)</f>
         <v>-4086</v>
       </c>
-      <c r="O14" s="51">
+      <c r="O14" s="43">
         <f>SUM(O12:O13)</f>
         <v>-3949</v>
       </c>
@@ -1827,7 +1812,7 @@
         <f t="shared" ref="R14" si="9">SUM(R12:R13)</f>
         <v>-4677</v>
       </c>
-      <c r="S14" s="51">
+      <c r="S14" s="43">
         <f t="shared" ref="S14" si="10">SUM(S12:S13)</f>
         <v>-4295</v>
       </c>
@@ -1839,17 +1824,17 @@
         <f t="shared" si="11"/>
         <v>-4950</v>
       </c>
-      <c r="V14" s="61"/>
-      <c r="W14" s="61"/>
-      <c r="X14" s="61"/>
-      <c r="Y14" s="61"/>
-      <c r="Z14" s="61"/>
-      <c r="AA14" s="61"/>
-      <c r="AB14" s="61"/>
-      <c r="AC14" s="61"/>
-      <c r="AD14" s="61"/>
-      <c r="AE14" s="61"/>
-      <c r="AF14" s="61"/>
+      <c r="V14" s="51"/>
+      <c r="W14" s="51"/>
+      <c r="X14" s="51"/>
+      <c r="Y14" s="51"/>
+      <c r="Z14" s="51"/>
+      <c r="AA14" s="51"/>
+      <c r="AB14" s="51"/>
+      <c r="AC14" s="51"/>
+      <c r="AD14" s="51"/>
+      <c r="AE14" s="51"/>
+      <c r="AF14" s="51"/>
     </row>
     <row r="15" spans="2:32" x14ac:dyDescent="0.2">
       <c r="E15" s="2" t="s">
@@ -1887,7 +1872,7 @@
         <f t="shared" si="13"/>
         <v>1738</v>
       </c>
-      <c r="O15" s="49">
+      <c r="O15" s="41">
         <f>SUM(O14,O11)</f>
         <v>1956</v>
       </c>
@@ -1903,7 +1888,7 @@
         <f t="shared" si="13"/>
         <v>2113</v>
       </c>
-      <c r="S15" s="49">
+      <c r="S15" s="41">
         <f t="shared" si="13"/>
         <v>1425</v>
       </c>
@@ -1915,210 +1900,210 @@
         <f t="shared" si="13"/>
         <v>2632</v>
       </c>
-      <c r="V15" s="61"/>
-      <c r="W15" s="61"/>
-      <c r="X15" s="61"/>
-      <c r="Y15" s="61"/>
-      <c r="Z15" s="61"/>
-      <c r="AA15" s="61"/>
-      <c r="AB15" s="61"/>
-      <c r="AC15" s="61"/>
-      <c r="AD15" s="61"/>
-      <c r="AE15" s="61"/>
-      <c r="AF15" s="61"/>
+      <c r="V15" s="51"/>
+      <c r="W15" s="51"/>
+      <c r="X15" s="51"/>
+      <c r="Y15" s="51"/>
+      <c r="Z15" s="51"/>
+      <c r="AA15" s="51"/>
+      <c r="AB15" s="51"/>
+      <c r="AC15" s="51"/>
+      <c r="AD15" s="51"/>
+      <c r="AE15" s="51"/>
+      <c r="AF15" s="51"/>
     </row>
     <row r="16" spans="2:32" x14ac:dyDescent="0.2">
       <c r="E16" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F16" s="46">
+      <c r="F16" s="39">
         <v>-370</v>
       </c>
-      <c r="G16" s="46">
+      <c r="G16" s="39">
         <v>-383</v>
       </c>
-      <c r="H16" s="46">
+      <c r="H16" s="39">
         <v>-420</v>
       </c>
-      <c r="I16" s="46">
+      <c r="I16" s="39">
         <v>-479</v>
       </c>
-      <c r="J16" s="46">
+      <c r="J16" s="39">
         <v>-513</v>
       </c>
-      <c r="L16" s="46">
+      <c r="L16" s="39">
         <v>-126</v>
       </c>
-      <c r="M16" s="46">
+      <c r="M16" s="39">
         <v>-115</v>
       </c>
-      <c r="N16" s="46">
+      <c r="N16" s="39">
         <v>-118</v>
       </c>
-      <c r="O16" s="50">
+      <c r="O16" s="42">
         <f>I16-SUM(L16:N16)</f>
         <v>-120</v>
       </c>
-      <c r="P16" s="46">
+      <c r="P16" s="39">
         <v>-144</v>
       </c>
-      <c r="Q16" s="46">
+      <c r="Q16" s="39">
         <v>-123</v>
       </c>
-      <c r="R16" s="46">
+      <c r="R16" s="39">
         <v>-117</v>
       </c>
-      <c r="S16" s="50">
+      <c r="S16" s="42">
         <f>J16-SUM(P16:R16)</f>
         <v>-129</v>
       </c>
-      <c r="T16" s="46">
+      <c r="T16" s="39">
         <v>-154</v>
       </c>
-      <c r="U16" s="46">
+      <c r="U16" s="39">
         <v>-127</v>
       </c>
-      <c r="V16" s="61"/>
-      <c r="W16" s="61"/>
-      <c r="X16" s="61"/>
-      <c r="Y16" s="61"/>
-      <c r="Z16" s="61"/>
-      <c r="AA16" s="61"/>
-      <c r="AB16" s="61"/>
-      <c r="AC16" s="61"/>
-      <c r="AD16" s="61"/>
-      <c r="AE16" s="61"/>
-      <c r="AF16" s="61"/>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="V16" s="51"/>
+      <c r="W16" s="51"/>
+      <c r="X16" s="51"/>
+      <c r="Y16" s="51"/>
+      <c r="Z16" s="51"/>
+      <c r="AA16" s="51"/>
+      <c r="AB16" s="51"/>
+      <c r="AC16" s="51"/>
+      <c r="AD16" s="51"/>
+      <c r="AE16" s="51"/>
+      <c r="AF16" s="51"/>
+    </row>
+    <row r="17" spans="5:32" x14ac:dyDescent="0.2">
       <c r="E17" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F17" s="46">
+      <c r="F17" s="39">
         <v>-50</v>
       </c>
-      <c r="G17" s="46">
+      <c r="G17" s="39">
         <v>-55</v>
       </c>
-      <c r="H17" s="46">
+      <c r="H17" s="39">
         <v>-115</v>
       </c>
-      <c r="I17" s="46">
+      <c r="I17" s="39">
         <v>-137</v>
       </c>
-      <c r="J17" s="46">
+      <c r="J17" s="39">
         <v>-156</v>
       </c>
-      <c r="L17" s="46">
+      <c r="L17" s="39">
         <v>-31</v>
       </c>
-      <c r="M17" s="46">
+      <c r="M17" s="39">
         <v>-42</v>
       </c>
-      <c r="N17" s="46">
+      <c r="N17" s="39">
         <v>-30</v>
       </c>
-      <c r="O17" s="50">
+      <c r="O17" s="42">
         <f>I17-SUM(L17:N17)</f>
         <v>-34</v>
       </c>
-      <c r="P17" s="46">
+      <c r="P17" s="39">
         <v>-37</v>
       </c>
-      <c r="Q17" s="46">
+      <c r="Q17" s="39">
         <v>-40</v>
       </c>
-      <c r="R17" s="46">
+      <c r="R17" s="39">
         <v>-38</v>
       </c>
-      <c r="S17" s="50">
+      <c r="S17" s="42">
         <f>J17-SUM(P17:R17)</f>
         <v>-41</v>
       </c>
-      <c r="T17" s="46">
+      <c r="T17" s="39">
         <v>-39</v>
       </c>
-      <c r="U17" s="46">
+      <c r="U17" s="39">
         <v>-46</v>
       </c>
-      <c r="V17" s="61"/>
-      <c r="W17" s="61"/>
-      <c r="X17" s="61"/>
-      <c r="Y17" s="61"/>
-      <c r="Z17" s="61"/>
-      <c r="AA17" s="61"/>
-      <c r="AB17" s="61"/>
-      <c r="AC17" s="61"/>
-      <c r="AD17" s="61"/>
-      <c r="AE17" s="61"/>
-      <c r="AF17" s="61"/>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="V17" s="51"/>
+      <c r="W17" s="51"/>
+      <c r="X17" s="51"/>
+      <c r="Y17" s="51"/>
+      <c r="Z17" s="51"/>
+      <c r="AA17" s="51"/>
+      <c r="AB17" s="51"/>
+      <c r="AC17" s="51"/>
+      <c r="AD17" s="51"/>
+      <c r="AE17" s="51"/>
+      <c r="AF17" s="51"/>
+    </row>
+    <row r="18" spans="5:32" x14ac:dyDescent="0.2">
       <c r="E18" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F18" s="47">
+      <c r="F18" s="40">
         <v>-159</v>
       </c>
-      <c r="G18" s="47">
+      <c r="G18" s="40">
         <v>-91</v>
       </c>
-      <c r="H18" s="47">
+      <c r="H18" s="40">
         <v>-121</v>
       </c>
-      <c r="I18" s="47">
+      <c r="I18" s="40">
         <v>-319</v>
       </c>
-      <c r="J18" s="47">
+      <c r="J18" s="40">
         <v>-127</v>
       </c>
-      <c r="K18" s="38"/>
-      <c r="L18" s="47">
+      <c r="K18" s="36"/>
+      <c r="L18" s="40">
         <v>-67</v>
       </c>
-      <c r="M18" s="47">
+      <c r="M18" s="40">
         <v>-74</v>
       </c>
-      <c r="N18" s="47">
+      <c r="N18" s="40">
         <v>-98</v>
       </c>
-      <c r="O18" s="51">
+      <c r="O18" s="43">
         <f>I18-SUM(L18:N18)</f>
         <v>-80</v>
       </c>
-      <c r="P18" s="47">
+      <c r="P18" s="40">
         <v>-67</v>
       </c>
-      <c r="Q18" s="47">
+      <c r="Q18" s="40">
         <v>-28</v>
       </c>
-      <c r="R18" s="47">
+      <c r="R18" s="40">
         <v>-20</v>
       </c>
-      <c r="S18" s="51">
+      <c r="S18" s="43">
         <f>J18-SUM(P18:R18)</f>
         <v>-12</v>
       </c>
-      <c r="T18" s="47">
+      <c r="T18" s="40">
         <v>-10</v>
       </c>
-      <c r="U18" s="47">
+      <c r="U18" s="40">
         <v>-27</v>
       </c>
-      <c r="V18" s="61"/>
-      <c r="W18" s="61"/>
-      <c r="X18" s="61"/>
-      <c r="Y18" s="61"/>
-      <c r="Z18" s="61"/>
-      <c r="AA18" s="61"/>
-      <c r="AB18" s="61"/>
-      <c r="AC18" s="61"/>
-      <c r="AD18" s="61"/>
-      <c r="AE18" s="61"/>
-      <c r="AF18" s="61"/>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="E19" s="36" t="s">
+      <c r="V18" s="51"/>
+      <c r="W18" s="51"/>
+      <c r="X18" s="51"/>
+      <c r="Y18" s="51"/>
+      <c r="Z18" s="51"/>
+      <c r="AA18" s="51"/>
+      <c r="AB18" s="51"/>
+      <c r="AC18" s="51"/>
+      <c r="AD18" s="51"/>
+      <c r="AE18" s="51"/>
+      <c r="AF18" s="51"/>
+    </row>
+    <row r="19" spans="5:32" x14ac:dyDescent="0.2">
+      <c r="E19" s="35" t="s">
         <v>89</v>
       </c>
       <c r="F19" s="14">
@@ -2142,341 +2127,334 @@
         <v>-796</v>
       </c>
       <c r="L19" s="14">
-        <f>SUM(L16:L18)</f>
+        <f t="shared" ref="L19:U19" si="14">SUM(L16:L18)</f>
         <v>-224</v>
       </c>
       <c r="M19" s="14">
-        <f>SUM(M16:M18)</f>
+        <f t="shared" si="14"/>
         <v>-231</v>
       </c>
       <c r="N19" s="14">
-        <f>SUM(N16:N18)</f>
+        <f t="shared" si="14"/>
         <v>-246</v>
       </c>
-      <c r="O19" s="51">
-        <f>SUM(O16:O18)</f>
+      <c r="O19" s="43">
+        <f t="shared" si="14"/>
         <v>-234</v>
       </c>
       <c r="P19" s="14">
-        <f>SUM(P16:P18)</f>
+        <f t="shared" si="14"/>
         <v>-248</v>
       </c>
       <c r="Q19" s="14">
-        <f>SUM(Q16:Q18)</f>
+        <f t="shared" si="14"/>
         <v>-191</v>
       </c>
       <c r="R19" s="14">
-        <f>SUM(R16:R18)</f>
+        <f t="shared" si="14"/>
         <v>-175</v>
       </c>
-      <c r="S19" s="51">
-        <f>SUM(S16:S18)</f>
+      <c r="S19" s="43">
+        <f t="shared" si="14"/>
         <v>-182</v>
       </c>
       <c r="T19" s="14">
-        <f>SUM(T16:T18)</f>
+        <f t="shared" si="14"/>
         <v>-203</v>
       </c>
       <c r="U19" s="14">
-        <f>SUM(U16:U18)</f>
+        <f t="shared" si="14"/>
         <v>-200</v>
       </c>
-      <c r="V19" s="61"/>
-      <c r="W19" s="61"/>
-      <c r="X19" s="61"/>
-      <c r="Y19" s="61"/>
-      <c r="Z19" s="61"/>
-      <c r="AA19" s="61"/>
-      <c r="AB19" s="61"/>
-      <c r="AC19" s="61"/>
-      <c r="AD19" s="61"/>
-      <c r="AE19" s="61"/>
-      <c r="AF19" s="61"/>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="V19" s="51"/>
+      <c r="W19" s="51"/>
+      <c r="X19" s="51"/>
+      <c r="Y19" s="51"/>
+      <c r="Z19" s="51"/>
+      <c r="AA19" s="51"/>
+      <c r="AB19" s="51"/>
+      <c r="AC19" s="51"/>
+      <c r="AD19" s="51"/>
+      <c r="AE19" s="51"/>
+      <c r="AF19" s="51"/>
+    </row>
+    <row r="20" spans="5:32" x14ac:dyDescent="0.2">
       <c r="E20" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="41">
+      <c r="F20" s="13">
         <f>SUM(F19,F15)</f>
         <v>1964</v>
       </c>
-      <c r="G20" s="41">
+      <c r="G20" s="13">
         <f>SUM(G19,G15)</f>
         <v>8286</v>
       </c>
-      <c r="H20" s="41">
+      <c r="H20" s="13">
         <f>SUM(H19,H15)</f>
         <v>7035</v>
       </c>
-      <c r="I20" s="41">
+      <c r="I20" s="13">
         <f>SUM(I19,I15)</f>
         <v>6225</v>
       </c>
-      <c r="J20" s="41">
+      <c r="J20" s="13">
         <f>SUM(J19,J15)</f>
         <v>6864</v>
       </c>
-      <c r="K20" s="42"/>
-      <c r="L20" s="41">
-        <f>SUM(L19,L15)</f>
+      <c r="L20" s="13">
+        <f t="shared" ref="L20:U20" si="15">SUM(L19,L15)</f>
         <v>1601</v>
       </c>
-      <c r="M20" s="41">
-        <f>SUM(M19,M15)</f>
+      <c r="M20" s="13">
+        <f t="shared" si="15"/>
         <v>1410</v>
       </c>
-      <c r="N20" s="41">
-        <f>SUM(N19,N15)</f>
+      <c r="N20" s="13">
+        <f t="shared" si="15"/>
         <v>1492</v>
       </c>
-      <c r="O20" s="52">
-        <f>SUM(O19,O15)</f>
+      <c r="O20" s="41">
+        <f t="shared" si="15"/>
         <v>1722</v>
       </c>
-      <c r="P20" s="41">
-        <f>SUM(P19,P15)</f>
+      <c r="P20" s="13">
+        <f t="shared" si="15"/>
         <v>1634</v>
       </c>
-      <c r="Q20" s="41">
-        <f>SUM(Q19,Q15)</f>
+      <c r="Q20" s="13">
+        <f t="shared" si="15"/>
         <v>2049</v>
       </c>
-      <c r="R20" s="41">
-        <f>SUM(R19,R15)</f>
+      <c r="R20" s="13">
+        <f t="shared" si="15"/>
         <v>1938</v>
       </c>
-      <c r="S20" s="52">
-        <f>SUM(S19,S15)</f>
+      <c r="S20" s="41">
+        <f t="shared" si="15"/>
         <v>1243</v>
       </c>
-      <c r="T20" s="41">
-        <f>SUM(T19,T15)</f>
+      <c r="T20" s="13">
+        <f t="shared" si="15"/>
         <v>1303</v>
       </c>
-      <c r="U20" s="41">
-        <f>SUM(U19,U15)</f>
+      <c r="U20" s="13">
+        <f t="shared" si="15"/>
         <v>2432</v>
       </c>
-      <c r="V20" s="63">
+      <c r="V20" s="38">
         <v>2393</v>
       </c>
-      <c r="W20" s="63">
+      <c r="W20" s="38">
         <v>2540</v>
       </c>
-      <c r="X20" s="63">
+      <c r="X20" s="38">
         <v>2494</v>
       </c>
-      <c r="Y20" s="63">
+      <c r="Y20" s="38">
         <v>1918</v>
       </c>
-      <c r="Z20" s="61"/>
-      <c r="AA20" s="61"/>
-      <c r="AB20" s="61"/>
-      <c r="AC20" s="61"/>
-      <c r="AD20" s="61"/>
-      <c r="AE20" s="61"/>
-      <c r="AF20" s="61"/>
-    </row>
-    <row r="21" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21"/>
-      <c r="E21" s="40" t="s">
+      <c r="Z20" s="51"/>
+      <c r="AA20" s="51"/>
+      <c r="AB20" s="51"/>
+      <c r="AC20" s="51"/>
+      <c r="AD20" s="51"/>
+      <c r="AE20" s="51"/>
+      <c r="AF20" s="51"/>
+    </row>
+    <row r="21" spans="5:32" x14ac:dyDescent="0.2">
+      <c r="E21" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="F21" s="48">
+      <c r="F21" s="39">
         <v>-598</v>
       </c>
-      <c r="G21" s="48">
+      <c r="G21" s="39">
         <v>-602</v>
       </c>
-      <c r="H21" s="48">
+      <c r="H21" s="39">
         <v>-560</v>
       </c>
-      <c r="I21" s="48">
+      <c r="I21" s="39">
         <v>-515</v>
       </c>
-      <c r="J21" s="48">
+      <c r="J21" s="39">
         <v>-319</v>
       </c>
-      <c r="K21" s="43"/>
-      <c r="L21" s="48">
+      <c r="L21" s="39">
         <v>-151</v>
       </c>
-      <c r="M21" s="48">
+      <c r="M21" s="39">
         <v>-171</v>
       </c>
-      <c r="N21" s="48">
+      <c r="N21" s="39">
         <v>-96</v>
       </c>
-      <c r="O21" s="53">
+      <c r="O21" s="42">
         <f>I21-SUM(L21:N21)</f>
         <v>-97</v>
       </c>
-      <c r="P21" s="48">
+      <c r="P21" s="39">
         <v>-89</v>
       </c>
-      <c r="Q21" s="48">
+      <c r="Q21" s="39">
         <v>-88</v>
       </c>
-      <c r="R21" s="48">
+      <c r="R21" s="39">
         <v>-72</v>
       </c>
-      <c r="S21" s="53">
+      <c r="S21" s="42">
         <f>J21-SUM(P21:R21)</f>
         <v>-70</v>
       </c>
-      <c r="T21" s="48">
+      <c r="T21" s="39">
         <v>-70</v>
       </c>
-      <c r="U21" s="48">
+      <c r="U21" s="39">
         <v>-82</v>
       </c>
-      <c r="V21" s="61"/>
-      <c r="W21" s="61"/>
-      <c r="X21" s="61"/>
-      <c r="Y21" s="61"/>
-      <c r="Z21" s="61"/>
-      <c r="AA21" s="61"/>
-      <c r="AB21" s="61"/>
-      <c r="AC21" s="61"/>
-      <c r="AD21" s="61"/>
-      <c r="AE21" s="61"/>
-      <c r="AF21" s="61"/>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="E22" s="40" t="s">
+      <c r="V21" s="51"/>
+      <c r="W21" s="51"/>
+      <c r="X21" s="51"/>
+      <c r="Y21" s="51"/>
+      <c r="Z21" s="51"/>
+      <c r="AA21" s="51"/>
+      <c r="AB21" s="51"/>
+      <c r="AC21" s="51"/>
+      <c r="AD21" s="51"/>
+      <c r="AE21" s="51"/>
+      <c r="AF21" s="51"/>
+    </row>
+    <row r="22" spans="5:32" x14ac:dyDescent="0.2">
+      <c r="E22" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="F22" s="47">
+      <c r="F22" s="40">
         <f>-101+59+473+12</f>
         <v>443</v>
       </c>
-      <c r="G22" s="47">
+      <c r="G22" s="40">
         <f>-105+80+5</f>
         <v>-20</v>
       </c>
-      <c r="H22" s="47">
+      <c r="H22" s="40">
         <f>31+207+2+31</f>
         <v>271</v>
       </c>
-      <c r="I22" s="47">
+      <c r="I22" s="40">
         <f>10+286+15</f>
         <v>311</v>
       </c>
-      <c r="J22" s="47">
+      <c r="J22" s="40">
         <f>362+15</f>
         <v>377</v>
       </c>
-      <c r="K22" s="39"/>
-      <c r="L22" s="47">
+      <c r="L22" s="40">
         <f>88+10</f>
         <v>98</v>
       </c>
-      <c r="M22" s="47">
+      <c r="M22" s="40">
         <f>24+5+2</f>
         <v>31</v>
       </c>
-      <c r="N22" s="47">
+      <c r="N22" s="40">
         <f>5+71</f>
         <v>76</v>
       </c>
-      <c r="O22" s="51">
+      <c r="O22" s="43">
         <f>I22-SUM(L22:N22)</f>
         <v>106</v>
       </c>
-      <c r="P22" s="47">
+      <c r="P22" s="40">
         <f>129</f>
         <v>129</v>
       </c>
-      <c r="Q22" s="47">
+      <c r="Q22" s="40">
         <f>69+4</f>
         <v>73</v>
       </c>
-      <c r="R22" s="47">
+      <c r="R22" s="40">
         <f>97+10</f>
         <v>107</v>
       </c>
-      <c r="S22" s="51">
+      <c r="S22" s="43">
         <f>J22-SUM(P22:R22)</f>
         <v>68</v>
       </c>
-      <c r="T22" s="47">
+      <c r="T22" s="40">
         <f>58+2</f>
         <v>60</v>
       </c>
-      <c r="U22" s="47">
+      <c r="U22" s="40">
         <f>41+6</f>
         <v>47</v>
       </c>
-      <c r="V22" s="61"/>
-      <c r="W22" s="61"/>
-      <c r="X22" s="61"/>
-      <c r="Y22" s="61"/>
-      <c r="Z22" s="61"/>
-      <c r="AA22" s="61"/>
-      <c r="AB22" s="61"/>
-      <c r="AC22" s="61"/>
-      <c r="AD22" s="61"/>
-      <c r="AE22" s="61"/>
-      <c r="AF22" s="61"/>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="V22" s="51"/>
+      <c r="W22" s="51"/>
+      <c r="X22" s="51"/>
+      <c r="Y22" s="51"/>
+      <c r="Z22" s="51"/>
+      <c r="AA22" s="51"/>
+      <c r="AB22" s="51"/>
+      <c r="AC22" s="51"/>
+      <c r="AD22" s="51"/>
+      <c r="AE22" s="51"/>
+      <c r="AF22" s="51"/>
+    </row>
+    <row r="23" spans="5:32" x14ac:dyDescent="0.2">
       <c r="E23" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F23" s="13">
-        <f t="shared" ref="F23" si="14">SUM(F20:F22)</f>
+        <f t="shared" ref="F23" si="16">SUM(F20:F22)</f>
         <v>1809</v>
       </c>
       <c r="G23" s="13">
-        <f t="shared" ref="G23" si="15">SUM(G20:G22)</f>
+        <f t="shared" ref="G23" si="17">SUM(G20:G22)</f>
         <v>7664</v>
       </c>
       <c r="H23" s="13">
-        <f t="shared" ref="H23" si="16">SUM(H20:H22)</f>
+        <f t="shared" ref="H23" si="18">SUM(H20:H22)</f>
         <v>6746</v>
       </c>
       <c r="I23" s="13">
-        <f t="shared" ref="I23" si="17">SUM(I20:I22)</f>
+        <f t="shared" ref="I23" si="19">SUM(I20:I22)</f>
         <v>6021</v>
       </c>
       <c r="J23" s="13">
-        <f t="shared" ref="J23" si="18">SUM(J20:J22)</f>
+        <f t="shared" ref="J23" si="20">SUM(J20:J22)</f>
         <v>6922</v>
       </c>
       <c r="L23" s="13">
-        <f t="shared" ref="L23:S23" si="19">SUM(L20:L22)</f>
+        <f t="shared" ref="L23:S23" si="21">SUM(L20:L22)</f>
         <v>1548</v>
       </c>
       <c r="M23" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1270</v>
       </c>
       <c r="N23" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1472</v>
       </c>
-      <c r="O23" s="49">
+      <c r="O23" s="41">
         <f>SUM(O20:O22)</f>
         <v>1731</v>
       </c>
       <c r="P23" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1674</v>
       </c>
       <c r="Q23" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>2034</v>
       </c>
       <c r="R23" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1973</v>
       </c>
-      <c r="S23" s="49">
-        <f t="shared" si="19"/>
+      <c r="S23" s="41">
+        <f t="shared" si="21"/>
         <v>1241</v>
       </c>
       <c r="T23" s="13">
@@ -2487,247 +2465,247 @@
         <f>SUM(U20:U22)</f>
         <v>2397</v>
       </c>
-      <c r="V23" s="61"/>
-      <c r="W23" s="61"/>
-      <c r="X23" s="61"/>
-      <c r="Y23" s="61"/>
-      <c r="Z23" s="61"/>
-      <c r="AA23" s="61"/>
-      <c r="AB23" s="61"/>
-      <c r="AC23" s="61"/>
-      <c r="AD23" s="61"/>
-      <c r="AE23" s="61"/>
-      <c r="AF23" s="61"/>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="V23" s="51"/>
+      <c r="W23" s="51"/>
+      <c r="X23" s="51"/>
+      <c r="Y23" s="51"/>
+      <c r="Z23" s="51"/>
+      <c r="AA23" s="51"/>
+      <c r="AB23" s="51"/>
+      <c r="AC23" s="51"/>
+      <c r="AD23" s="51"/>
+      <c r="AE23" s="51"/>
+      <c r="AF23" s="51"/>
+    </row>
+    <row r="24" spans="5:32" x14ac:dyDescent="0.2">
       <c r="E24" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="46">
+      <c r="F24" s="39">
         <v>-944</v>
       </c>
-      <c r="G24" s="46">
+      <c r="G24" s="39">
         <v>-2299</v>
       </c>
-      <c r="H24" s="46">
+      <c r="H24" s="39">
         <v>-2267</v>
       </c>
-      <c r="I24" s="46">
+      <c r="I24" s="39">
         <v>-2270</v>
       </c>
-      <c r="J24" s="46">
+      <c r="J24" s="39">
         <v>-2523</v>
       </c>
-      <c r="L24" s="46">
+      <c r="L24" s="39">
         <v>-499</v>
       </c>
-      <c r="M24" s="46">
+      <c r="M24" s="39">
         <v>-539</v>
       </c>
-      <c r="N24" s="46">
+      <c r="N24" s="39">
         <v>-508</v>
       </c>
-      <c r="O24" s="50">
+      <c r="O24" s="42">
         <f>I24-SUM(L24:N24)</f>
         <v>-724</v>
       </c>
-      <c r="P24" s="46">
+      <c r="P24" s="39">
         <v>-512</v>
       </c>
-      <c r="Q24" s="46">
+      <c r="Q24" s="39">
         <v>-754</v>
       </c>
-      <c r="R24" s="46">
+      <c r="R24" s="39">
         <v>-737</v>
       </c>
-      <c r="S24" s="50">
+      <c r="S24" s="42">
         <f>J24-SUM(P24:R24)</f>
         <v>-520</v>
       </c>
-      <c r="T24" s="46">
+      <c r="T24" s="39">
         <v>-500</v>
       </c>
-      <c r="U24" s="46">
+      <c r="U24" s="39">
         <v>-850</v>
       </c>
-      <c r="V24" s="61"/>
-      <c r="W24" s="61"/>
-      <c r="X24" s="61"/>
-      <c r="Y24" s="61"/>
-      <c r="Z24" s="61"/>
-      <c r="AA24" s="61"/>
-      <c r="AB24" s="61"/>
-      <c r="AC24" s="61"/>
-      <c r="AD24" s="61"/>
-      <c r="AE24" s="61"/>
-      <c r="AF24" s="61"/>
-    </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="V24" s="51"/>
+      <c r="W24" s="51"/>
+      <c r="X24" s="51"/>
+      <c r="Y24" s="51"/>
+      <c r="Z24" s="51"/>
+      <c r="AA24" s="51"/>
+      <c r="AB24" s="51"/>
+      <c r="AC24" s="51"/>
+      <c r="AD24" s="51"/>
+      <c r="AE24" s="51"/>
+      <c r="AF24" s="51"/>
+    </row>
+    <row r="25" spans="5:32" x14ac:dyDescent="0.2">
       <c r="E25" t="s">
         <v>90</v>
       </c>
-      <c r="F25" s="46">
+      <c r="F25" s="39">
         <v>-266</v>
       </c>
-      <c r="G25" s="46">
+      <c r="G25" s="39">
         <v>-1059</v>
       </c>
-      <c r="H25" s="46">
+      <c r="H25" s="39">
         <v>-1011</v>
       </c>
-      <c r="I25" s="46">
+      <c r="I25" s="39">
         <v>-1903</v>
       </c>
-      <c r="J25" s="46">
+      <c r="J25" s="39">
         <v>-2510</v>
       </c>
-      <c r="L25" s="46">
+      <c r="L25" s="39">
         <v>-386</v>
       </c>
-      <c r="M25" s="46">
+      <c r="M25" s="39">
         <v>-388</v>
       </c>
-      <c r="N25" s="46">
+      <c r="N25" s="39">
         <v>-510</v>
       </c>
-      <c r="O25" s="50">
+      <c r="O25" s="42">
         <f>I25-SUM(L25:N25)</f>
         <v>-619</v>
       </c>
-      <c r="P25" s="46">
+      <c r="P25" s="39">
         <v>-689</v>
       </c>
-      <c r="Q25" s="46">
+      <c r="Q25" s="39">
         <v>-664</v>
       </c>
-      <c r="R25" s="46">
+      <c r="R25" s="39">
         <v>-710</v>
       </c>
-      <c r="S25" s="50">
+      <c r="S25" s="42">
         <f>J25-SUM(P25:R25)</f>
         <v>-447</v>
       </c>
-      <c r="T25" s="46">
+      <c r="T25" s="39">
         <v>-441</v>
       </c>
-      <c r="U25" s="46">
+      <c r="U25" s="39">
         <v>-775</v>
       </c>
-      <c r="V25" s="61"/>
-      <c r="W25" s="61"/>
-      <c r="X25" s="61"/>
-      <c r="Y25" s="61"/>
-      <c r="Z25" s="61"/>
-      <c r="AA25" s="61"/>
-      <c r="AB25" s="61"/>
-      <c r="AC25" s="61"/>
-      <c r="AD25" s="61"/>
-      <c r="AE25" s="61"/>
-      <c r="AF25" s="61"/>
-    </row>
-    <row r="26" spans="1:32" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V25" s="51"/>
+      <c r="W25" s="51"/>
+      <c r="X25" s="51"/>
+      <c r="Y25" s="51"/>
+      <c r="Z25" s="51"/>
+      <c r="AA25" s="51"/>
+      <c r="AB25" s="51"/>
+      <c r="AC25" s="51"/>
+      <c r="AD25" s="51"/>
+      <c r="AE25" s="51"/>
+      <c r="AF25" s="51"/>
+    </row>
+    <row r="26" spans="5:32" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E26" s="2" t="s">
         <v>91</v>
       </c>
       <c r="F26" s="16">
-        <f t="shared" ref="F26:J26" si="20">SUM(F23:F25)</f>
+        <f t="shared" ref="F26:J26" si="22">SUM(F23:F25)</f>
         <v>599</v>
       </c>
       <c r="G26" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>4306</v>
       </c>
       <c r="H26" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>3468</v>
       </c>
       <c r="I26" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1848</v>
       </c>
       <c r="J26" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1889</v>
       </c>
       <c r="L26" s="16">
-        <f t="shared" ref="L26" si="21">SUM(L23:L25)</f>
+        <f t="shared" ref="L26" si="23">SUM(L23:L25)</f>
         <v>663</v>
       </c>
       <c r="M26" s="16">
-        <f t="shared" ref="M26" si="22">SUM(M23:M25)</f>
+        <f t="shared" ref="M26" si="24">SUM(M23:M25)</f>
         <v>343</v>
       </c>
       <c r="N26" s="16">
-        <f t="shared" ref="N26" si="23">SUM(N23:N25)</f>
+        <f t="shared" ref="N26" si="25">SUM(N23:N25)</f>
         <v>454</v>
       </c>
-      <c r="O26" s="54">
+      <c r="O26" s="44">
         <f>SUM(O23:O25)</f>
         <v>388</v>
       </c>
       <c r="P26" s="16">
-        <f t="shared" ref="P26" si="24">SUM(P23:P25)</f>
+        <f t="shared" ref="P26" si="26">SUM(P23:P25)</f>
         <v>473</v>
       </c>
       <c r="Q26" s="16">
-        <f t="shared" ref="Q26" si="25">SUM(Q23:Q25)</f>
+        <f t="shared" ref="Q26" si="27">SUM(Q23:Q25)</f>
         <v>616</v>
       </c>
       <c r="R26" s="16">
-        <f t="shared" ref="R26" si="26">SUM(R23:R25)</f>
+        <f t="shared" ref="R26" si="28">SUM(R23:R25)</f>
         <v>526</v>
       </c>
-      <c r="S26" s="54">
-        <f t="shared" ref="S26" si="27">SUM(S23:S25)</f>
+      <c r="S26" s="44">
+        <f t="shared" ref="S26" si="29">SUM(S23:S25)</f>
         <v>274</v>
       </c>
       <c r="T26" s="16">
-        <f t="shared" ref="T26:U26" si="28">SUM(T23:T25)</f>
+        <f t="shared" ref="T26:U26" si="30">SUM(T23:T25)</f>
         <v>352</v>
       </c>
       <c r="U26" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>772</v>
       </c>
-      <c r="V26" s="64">
+      <c r="V26" s="53">
         <v>664</v>
       </c>
-      <c r="W26" s="64">
+      <c r="W26" s="53">
         <v>759</v>
       </c>
-      <c r="X26" s="64">
+      <c r="X26" s="53">
         <v>810</v>
       </c>
-      <c r="Y26" s="64">
+      <c r="Y26" s="53">
         <v>761</v>
       </c>
-      <c r="Z26" s="64">
+      <c r="Z26" s="53">
         <v>1115</v>
       </c>
-      <c r="AA26" s="64">
+      <c r="AA26" s="53">
         <v>1263</v>
       </c>
-      <c r="AB26" s="64">
+      <c r="AB26" s="53">
         <v>1440</v>
       </c>
-      <c r="AC26" s="64">
+      <c r="AC26" s="53">
         <v>1026</v>
       </c>
-      <c r="AD26" s="64">
+      <c r="AD26" s="53">
         <v>1006</v>
       </c>
-      <c r="AE26" s="64">
+      <c r="AE26" s="53">
         <v>997</v>
       </c>
-      <c r="AF26" s="64">
+      <c r="AF26" s="53">
         <v>975</v>
       </c>
     </row>
-    <row r="27" spans="1:32" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O27" s="55"/>
-      <c r="S27" s="55"/>
-    </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="27" spans="5:32" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O27" s="45"/>
+      <c r="S27" s="45"/>
+    </row>
+    <row r="28" spans="5:32" x14ac:dyDescent="0.2">
       <c r="E28" s="26" t="s">
         <v>24</v>
       </c>
@@ -2756,39 +2734,39 @@
         <v>n/a</v>
       </c>
       <c r="M28" s="18">
-        <f>IFERROR(+M11/L11-1,"n/a")</f>
+        <f t="shared" ref="M28:U28" si="31">IFERROR(+M11/L11-1,"n/a")</f>
         <v>6.4575988123956263E-2</v>
       </c>
       <c r="N28" s="18">
-        <f>IFERROR(+N11/M11-1,"n/a")</f>
+        <f t="shared" si="31"/>
         <v>1.5164720237057727E-2</v>
       </c>
-      <c r="O28" s="56">
-        <f>IFERROR(+O11/N11-1,"n/a")</f>
+      <c r="O28" s="46">
+        <f t="shared" si="31"/>
         <v>1.3907967032966928E-2</v>
       </c>
       <c r="P28" s="18">
-        <f>IFERROR(+P11/O11-1,"n/a")</f>
+        <f t="shared" si="31"/>
         <v>7.0448772226926248E-2</v>
       </c>
       <c r="Q28" s="18">
-        <f>IFERROR(+Q11/P11-1,"n/a")</f>
+        <f t="shared" si="31"/>
         <v>4.793545325106785E-2</v>
       </c>
       <c r="R28" s="18">
-        <f>IFERROR(+R11/Q11-1,"n/a")</f>
+        <f t="shared" si="31"/>
         <v>2.5060386473430007E-2</v>
       </c>
-      <c r="S28" s="56">
-        <f>IFERROR(+S11/R11-1,"n/a")</f>
+      <c r="S28" s="46">
+        <f t="shared" si="31"/>
         <v>-0.15758468335787923</v>
       </c>
       <c r="T28" s="18">
-        <f>IFERROR(+T11/S11-1,"n/a")</f>
+        <f t="shared" si="31"/>
         <v>1.3986013986013734E-3</v>
       </c>
       <c r="U28" s="18">
-        <f>IFERROR(+U11/T11-1,"n/a")</f>
+        <f t="shared" si="31"/>
         <v>0.323673184357542</v>
       </c>
       <c r="V28" s="18">
@@ -2796,47 +2774,47 @@
         <v>0.25541201117318435</v>
       </c>
       <c r="W28" s="18">
-        <f>IFERROR(+W11/V11-1,"n/a")</f>
+        <f t="shared" ref="W28:AF28" si="32">IFERROR(+W11/V11-1,"n/a")</f>
         <v>6.2021971909331119E-2</v>
       </c>
       <c r="X28" s="18">
-        <f>IFERROR(+X11/W11-1,"n/a")</f>
+        <f t="shared" si="32"/>
         <v>-7.5946052114704843E-3</v>
       </c>
       <c r="Y28" s="18">
-        <f>IFERROR(+Y11/X11-1,"n/a")</f>
+        <f t="shared" si="32"/>
         <v>-2.7312310331178202E-2</v>
       </c>
       <c r="Z28" s="18">
-        <f>IFERROR(+Z11/Y11-1,"n/a")</f>
+        <f t="shared" si="32"/>
         <v>8.3966359196961493E-2</v>
       </c>
       <c r="AA28" s="18">
-        <f>IFERROR(+AA11/Z11-1,"n/a")</f>
+        <f t="shared" si="32"/>
         <v>4.7303216118132818E-2</v>
       </c>
       <c r="AB28" s="18">
-        <f>IFERROR(+AB11/AA11-1,"n/a")</f>
+        <f t="shared" si="32"/>
         <v>4.11040745608795E-2</v>
       </c>
       <c r="AC28" s="18">
-        <f>IFERROR(+AC11/AB11-1,"n/a")</f>
+        <f t="shared" si="32"/>
         <v>-6.3583151612533029E-2</v>
       </c>
       <c r="AD28" s="18">
-        <f>IFERROR(+AD11/AC11-1,"n/a")</f>
+        <f t="shared" si="32"/>
         <v>5.7605098664053056E-3</v>
       </c>
       <c r="AE28" s="18">
-        <f>IFERROR(+AE11/AD11-1,"n/a")</f>
+        <f t="shared" si="32"/>
         <v>5.4837923470631988E-3</v>
       </c>
       <c r="AF28" s="18">
-        <f>IFERROR(+AF11/AE11-1,"n/a")</f>
+        <f t="shared" si="32"/>
         <v>-4.7266997939643396E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="29" spans="5:32" x14ac:dyDescent="0.2">
       <c r="E29" s="27" t="s">
         <v>98</v>
       </c>
@@ -2845,107 +2823,107 @@
         <v>0.17910973376531905</v>
       </c>
       <c r="G29" s="20">
-        <f t="shared" ref="G29:AF29" si="29">+G15/G11</f>
+        <f t="shared" ref="G29:AF29" si="33">+G15/G11</f>
         <v>0.38586123878310352</v>
       </c>
       <c r="H29" s="20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0.33762071992976295</v>
       </c>
       <c r="I29" s="20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0.31327936994093197</v>
       </c>
       <c r="J29" s="20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0.30092319780003929</v>
       </c>
       <c r="L29" s="20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0.33865281128224162</v>
       </c>
       <c r="M29" s="20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0.28603799895415721</v>
       </c>
       <c r="N29" s="20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0.29842032967032966</v>
       </c>
       <c r="O29" s="20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0.33124470787468246</v>
       </c>
       <c r="P29" s="20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0.29773769973105524</v>
       </c>
       <c r="Q29" s="20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0.33816425120772947</v>
       </c>
       <c r="R29" s="20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0.31119293078055965</v>
       </c>
       <c r="S29" s="20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0.24912587412587411</v>
       </c>
       <c r="T29" s="20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0.26291899441340782</v>
       </c>
       <c r="U29" s="20">
-        <f t="shared" ref="U29" si="30">+U15/U11</f>
+        <f t="shared" ref="U29" si="34">+U15/U11</f>
         <v>0.3471379583223424</v>
       </c>
       <c r="V29" s="20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="W29" s="20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="X29" s="20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Y29" s="20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Z29" s="20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AA29" s="20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AB29" s="20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AC29" s="20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AD29" s="20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AE29" s="20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AF29" s="20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="30" spans="5:32" x14ac:dyDescent="0.2">
       <c r="E30" s="27" t="s">
         <v>25</v>
       </c>
@@ -2970,91 +2948,91 @@
         <v>0.26965232763700647</v>
       </c>
       <c r="L30" s="20">
-        <f>IFERROR(+L20/L11,"n/a")</f>
+        <f t="shared" ref="L30:AF30" si="35">IFERROR(+L20/L11,"n/a")</f>
         <v>0.29708665800705142</v>
       </c>
       <c r="M30" s="20">
-        <f>IFERROR(+M20/M11,"n/a")</f>
+        <f t="shared" si="35"/>
         <v>0.24577305211783163</v>
       </c>
       <c r="N30" s="20">
-        <f>IFERROR(+N20/N11,"n/a")</f>
+        <f t="shared" si="35"/>
         <v>0.25618131868131866</v>
       </c>
-      <c r="O30" s="57">
-        <f>IFERROR(+O20/O11,"n/a")</f>
+      <c r="O30" s="47">
+        <f t="shared" si="35"/>
         <v>0.29161727349703642</v>
       </c>
       <c r="P30" s="20">
-        <f>IFERROR(+P20/P11,"n/a")</f>
+        <f t="shared" si="35"/>
         <v>0.25850340136054423</v>
       </c>
       <c r="Q30" s="20">
-        <f>IFERROR(+Q20/Q11,"n/a")</f>
+        <f t="shared" si="35"/>
         <v>0.30932971014492755</v>
       </c>
       <c r="R30" s="20">
-        <f>IFERROR(+R20/R11,"n/a")</f>
+        <f t="shared" si="35"/>
         <v>0.28541973490427097</v>
       </c>
-      <c r="S30" s="57">
-        <f>IFERROR(+S20/S11,"n/a")</f>
+      <c r="S30" s="47">
+        <f t="shared" si="35"/>
         <v>0.21730769230769231</v>
       </c>
       <c r="T30" s="20">
-        <f>IFERROR(+T20/T11,"n/a")</f>
+        <f t="shared" si="35"/>
         <v>0.2274790502793296</v>
       </c>
       <c r="U30" s="20">
-        <f>IFERROR(+U20/U11,"n/a")</f>
+        <f t="shared" si="35"/>
         <v>0.320759694012134</v>
       </c>
       <c r="V30" s="20">
-        <f>IFERROR(+V20/V11,"n/a")</f>
+        <f t="shared" si="35"/>
         <v>0.33277708246419135</v>
       </c>
       <c r="W30" s="20">
-        <f>IFERROR(+W20/W11,"n/a")</f>
+        <f t="shared" si="35"/>
         <v>0.33259133167474136</v>
       </c>
       <c r="X30" s="20">
-        <f>IFERROR(+X20/X11,"n/a")</f>
+        <f t="shared" si="35"/>
         <v>0.32906715925583852</v>
       </c>
       <c r="Y30" s="20">
-        <f>IFERROR(+Y20/Y11,"n/a")</f>
+        <f t="shared" si="35"/>
         <v>0.26017362995116655</v>
       </c>
       <c r="Z30" s="20">
-        <f>IFERROR(+Z20/Z11,"n/a")</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AA30" s="20">
-        <f>IFERROR(+AA20/AA11,"n/a")</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AB30" s="20">
-        <f>IFERROR(+AB20/AB11,"n/a")</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AC30" s="20">
-        <f>IFERROR(+AC20/AC11,"n/a")</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AD30" s="20">
-        <f>IFERROR(+AD20/AD11,"n/a")</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AE30" s="20">
-        <f>IFERROR(+AE20/AE11,"n/a")</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AF30" s="20">
-        <f>IFERROR(+AF20/AF11,"n/a")</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="31" spans="5:32" x14ac:dyDescent="0.2">
       <c r="E31" s="27" t="s">
         <v>36</v>
       </c>
@@ -3079,58 +3057,58 @@
         <v>0.36449003178272177</v>
       </c>
       <c r="L31" s="20">
-        <f>-L24/L23</f>
+        <f t="shared" ref="L31:U31" si="36">-L24/L23</f>
         <v>0.32235142118863047</v>
       </c>
       <c r="M31" s="20">
-        <f>-M24/M23</f>
+        <f t="shared" si="36"/>
         <v>0.42440944881889764</v>
       </c>
       <c r="N31" s="20">
-        <f>-N24/N23</f>
+        <f t="shared" si="36"/>
         <v>0.34510869565217389</v>
       </c>
-      <c r="O31" s="57">
-        <f>-O24/O23</f>
+      <c r="O31" s="47">
+        <f t="shared" si="36"/>
         <v>0.41825534373194684</v>
       </c>
       <c r="P31" s="20">
-        <f>-P24/P23</f>
+        <f t="shared" si="36"/>
         <v>0.30585424133811229</v>
       </c>
       <c r="Q31" s="20">
-        <f>-Q24/Q23</f>
+        <f t="shared" si="36"/>
         <v>0.37069813176007865</v>
       </c>
       <c r="R31" s="20">
-        <f>-R24/R23</f>
+        <f t="shared" si="36"/>
         <v>0.37354282818043588</v>
       </c>
-      <c r="S31" s="57">
-        <f>-S24/S23</f>
+      <c r="S31" s="47">
+        <f t="shared" si="36"/>
         <v>0.41901692183722805</v>
       </c>
       <c r="T31" s="20">
-        <f>-T24/T23</f>
+        <f t="shared" si="36"/>
         <v>0.38669760247486468</v>
       </c>
       <c r="U31" s="20">
-        <f>-U24/U23</f>
+        <f t="shared" si="36"/>
         <v>0.3546099290780142</v>
       </c>
-      <c r="V31" s="60"/>
-      <c r="W31" s="60"/>
-      <c r="X31" s="60"/>
-      <c r="Y31" s="60"/>
-      <c r="Z31" s="60"/>
-      <c r="AA31" s="60"/>
-      <c r="AB31" s="60"/>
-      <c r="AC31" s="60"/>
-      <c r="AD31" s="60"/>
-      <c r="AE31" s="60"/>
-      <c r="AF31" s="60"/>
-    </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="V31" s="50"/>
+      <c r="W31" s="50"/>
+      <c r="X31" s="50"/>
+      <c r="Y31" s="50"/>
+      <c r="Z31" s="50"/>
+      <c r="AA31" s="50"/>
+      <c r="AB31" s="50"/>
+      <c r="AC31" s="50"/>
+      <c r="AD31" s="50"/>
+      <c r="AE31" s="50"/>
+      <c r="AF31" s="50"/>
+    </row>
+    <row r="32" spans="5:32" x14ac:dyDescent="0.2">
       <c r="E32" s="28" t="s">
         <v>26</v>
       </c>
@@ -3159,39 +3137,39 @@
         <v>n/a</v>
       </c>
       <c r="M32" s="22">
-        <f>IFERROR(+M26/L26-1,"n/a")</f>
+        <f t="shared" ref="M32:U32" si="37">IFERROR(+M26/L26-1,"n/a")</f>
         <v>-0.48265460030165908</v>
       </c>
       <c r="N32" s="22">
-        <f>IFERROR(+N26/M26-1,"n/a")</f>
+        <f t="shared" si="37"/>
         <v>0.32361516034985427</v>
       </c>
-      <c r="O32" s="58">
-        <f>IFERROR(+O26/N26-1,"n/a")</f>
+      <c r="O32" s="48">
+        <f t="shared" si="37"/>
         <v>-0.14537444933920707</v>
       </c>
       <c r="P32" s="22">
-        <f>IFERROR(+P26/O26-1,"n/a")</f>
+        <f t="shared" si="37"/>
         <v>0.21907216494845372</v>
       </c>
       <c r="Q32" s="22">
-        <f>IFERROR(+Q26/P26-1,"n/a")</f>
+        <f t="shared" si="37"/>
         <v>0.30232558139534893</v>
       </c>
       <c r="R32" s="22">
-        <f>IFERROR(+R26/Q26-1,"n/a")</f>
+        <f t="shared" si="37"/>
         <v>-0.14610389610389607</v>
       </c>
-      <c r="S32" s="58">
-        <f>IFERROR(+S26/R26-1,"n/a")</f>
+      <c r="S32" s="48">
+        <f t="shared" si="37"/>
         <v>-0.47908745247148288</v>
       </c>
       <c r="T32" s="22">
-        <f>IFERROR(+T26/S26-1,"n/a")</f>
+        <f t="shared" si="37"/>
         <v>0.28467153284671531</v>
       </c>
       <c r="U32" s="22">
-        <f>IFERROR(+U26/T26-1,"n/a")</f>
+        <f t="shared" si="37"/>
         <v>1.1931818181818183</v>
       </c>
       <c r="V32" s="22">
@@ -3199,49 +3177,49 @@
         <v>0.88636363636363646</v>
       </c>
       <c r="W32" s="22">
-        <f>IFERROR(+W26/V26-1,"n/a")</f>
+        <f t="shared" ref="W32:AF32" si="38">IFERROR(+W26/V26-1,"n/a")</f>
         <v>0.14307228915662651</v>
       </c>
       <c r="X32" s="22">
-        <f>IFERROR(+X26/W26-1,"n/a")</f>
+        <f t="shared" si="38"/>
         <v>6.7193675889328119E-2</v>
       </c>
       <c r="Y32" s="22">
-        <f>IFERROR(+Y26/X26-1,"n/a")</f>
+        <f t="shared" si="38"/>
         <v>-6.0493827160493785E-2</v>
       </c>
       <c r="Z32" s="22">
-        <f>IFERROR(+Z26/Y26-1,"n/a")</f>
+        <f t="shared" si="38"/>
         <v>0.46517739816031534</v>
       </c>
       <c r="AA32" s="22">
-        <f>IFERROR(+AA26/Z26-1,"n/a")</f>
+        <f t="shared" si="38"/>
         <v>0.13273542600896859</v>
       </c>
       <c r="AB32" s="22">
-        <f>IFERROR(+AB26/AA26-1,"n/a")</f>
+        <f t="shared" si="38"/>
         <v>0.14014251781472686</v>
       </c>
       <c r="AC32" s="22">
-        <f>IFERROR(+AC26/AB26-1,"n/a")</f>
+        <f t="shared" si="38"/>
         <v>-0.28749999999999998</v>
       </c>
       <c r="AD32" s="22">
-        <f>IFERROR(+AD26/AC26-1,"n/a")</f>
+        <f t="shared" si="38"/>
         <v>-1.9493177387914229E-2</v>
       </c>
       <c r="AE32" s="22">
-        <f>IFERROR(+AE26/AD26-1,"n/a")</f>
+        <f t="shared" si="38"/>
         <v>-8.9463220675943811E-3</v>
       </c>
       <c r="AF32" s="22">
-        <f>IFERROR(+AF26/AE26-1,"n/a")</f>
+        <f t="shared" si="38"/>
         <v>-2.2066198595787401E-2</v>
       </c>
     </row>
     <row r="33" spans="3:32" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O33" s="55"/>
-      <c r="S33" s="55"/>
+      <c r="O33" s="45"/>
+      <c r="S33" s="45"/>
     </row>
     <row r="34" spans="3:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E34" s="24" t="s">
@@ -3255,11 +3233,11 @@
       <c r="L34" s="12"/>
       <c r="M34" s="12"/>
       <c r="N34" s="12"/>
-      <c r="O34" s="50"/>
+      <c r="O34" s="42"/>
       <c r="P34" s="12"/>
       <c r="Q34" s="12"/>
       <c r="R34" s="12"/>
-      <c r="S34" s="50"/>
+      <c r="S34" s="42"/>
       <c r="T34" s="12"/>
       <c r="U34" s="12"/>
       <c r="V34" s="12"/>
@@ -3280,11 +3258,11 @@
       <c r="L35" s="12"/>
       <c r="M35" s="12"/>
       <c r="N35" s="12"/>
-      <c r="O35" s="50"/>
+      <c r="O35" s="42"/>
       <c r="P35" s="12"/>
       <c r="Q35" s="12"/>
       <c r="R35" s="12"/>
-      <c r="S35" s="50"/>
+      <c r="S35" s="42"/>
       <c r="T35" s="12"/>
       <c r="U35" s="12"/>
       <c r="V35" s="12"/>
@@ -3324,7 +3302,7 @@
       <c r="N36" s="15">
         <v>454</v>
       </c>
-      <c r="O36" s="59">
+      <c r="O36" s="49">
         <f>I36-SUM(L36:N36)</f>
         <v>388</v>
       </c>
@@ -3337,7 +3315,7 @@
       <c r="R36" s="15">
         <v>526</v>
       </c>
-      <c r="S36" s="59">
+      <c r="S36" s="49">
         <f>J36-SUM(P36:R36)</f>
         <v>274</v>
       </c>
@@ -3391,46 +3369,46 @@
         <v>0</v>
       </c>
       <c r="L37" s="15">
-        <f>+L36-L26</f>
+        <f t="shared" ref="L37:U37" si="39">+L36-L26</f>
         <v>0</v>
       </c>
       <c r="M37" s="15">
-        <f>+M36-M26</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N37" s="15">
-        <f>+N36-N26</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="O37" s="15">
-        <f>+O36-O26</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="P37" s="15">
-        <f>+P36-P26</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Q37" s="15">
-        <f>+Q36-Q26</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="R37" s="15">
-        <f>+R36-R26</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="S37" s="15">
-        <f>+S36-S26</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="T37" s="15">
-        <f>+T36-T26</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="U37" s="15">
-        <f>+U36-U26</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="V37" s="65">
+      <c r="V37" s="54">
         <f>+V36/V26</f>
         <v>0.16265060240963855</v>
       </c>
@@ -3512,7 +3490,7 @@
     </row>
     <row r="41" spans="3:32" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="42" spans="3:32" x14ac:dyDescent="0.2">
-      <c r="E42" s="39" t="s">
+      <c r="E42" t="s">
         <v>99</v>
       </c>
       <c r="F42" s="12"/>
@@ -3520,18 +3498,18 @@
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
       <c r="J42" s="12"/>
-      <c r="L42" s="46"/>
-      <c r="M42" s="46"/>
-      <c r="N42" s="46"/>
-      <c r="O42" s="46"/>
-      <c r="P42" s="46"/>
-      <c r="Q42" s="46">
+      <c r="L42" s="39"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="39"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="39"/>
+      <c r="Q42" s="39">
         <v>5273</v>
       </c>
-      <c r="R42" s="46"/>
-      <c r="S42" s="46"/>
-      <c r="T42" s="46"/>
-      <c r="U42" s="46">
+      <c r="R42" s="39"/>
+      <c r="S42" s="39"/>
+      <c r="T42" s="39"/>
+      <c r="U42" s="39">
         <v>4490</v>
       </c>
     </row>
@@ -3544,16 +3522,16 @@
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
       <c r="J43" s="12"/>
-      <c r="L43" s="46"/>
-      <c r="M43" s="46"/>
-      <c r="N43" s="46"/>
-      <c r="O43" s="46"/>
-      <c r="P43" s="46"/>
-      <c r="Q43" s="46"/>
-      <c r="R43" s="46"/>
-      <c r="S43" s="46"/>
-      <c r="T43" s="46"/>
-      <c r="U43" s="46"/>
+      <c r="L43" s="39"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="39"/>
+      <c r="O43" s="39"/>
+      <c r="P43" s="39"/>
+      <c r="Q43" s="39"/>
+      <c r="R43" s="39"/>
+      <c r="S43" s="39"/>
+      <c r="T43" s="39"/>
+      <c r="U43" s="39"/>
     </row>
     <row r="44" spans="3:32" x14ac:dyDescent="0.2">
       <c r="E44" s="10" t="s">
@@ -3564,16 +3542,16 @@
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
       <c r="J44" s="12"/>
-      <c r="L44" s="46"/>
-      <c r="M44" s="46"/>
-      <c r="N44" s="46"/>
-      <c r="O44" s="46"/>
-      <c r="P44" s="46"/>
-      <c r="Q44" s="46"/>
-      <c r="R44" s="46"/>
-      <c r="S44" s="46"/>
-      <c r="T44" s="46"/>
-      <c r="U44" s="46"/>
+      <c r="L44" s="39"/>
+      <c r="M44" s="39"/>
+      <c r="N44" s="39"/>
+      <c r="O44" s="39"/>
+      <c r="P44" s="39"/>
+      <c r="Q44" s="39"/>
+      <c r="R44" s="39"/>
+      <c r="S44" s="39"/>
+      <c r="T44" s="39"/>
+      <c r="U44" s="39"/>
     </row>
     <row r="45" spans="3:32" x14ac:dyDescent="0.2">
       <c r="E45" s="10" t="s">
@@ -3584,16 +3562,16 @@
       <c r="H45" s="12"/>
       <c r="I45" s="12"/>
       <c r="J45" s="12"/>
-      <c r="L45" s="46"/>
-      <c r="M45" s="46"/>
-      <c r="N45" s="46"/>
-      <c r="O45" s="46"/>
-      <c r="P45" s="46"/>
-      <c r="Q45" s="46"/>
-      <c r="R45" s="46"/>
-      <c r="S45" s="46"/>
-      <c r="T45" s="46"/>
-      <c r="U45" s="46"/>
+      <c r="L45" s="39"/>
+      <c r="M45" s="39"/>
+      <c r="N45" s="39"/>
+      <c r="O45" s="39"/>
+      <c r="P45" s="39"/>
+      <c r="Q45" s="39"/>
+      <c r="R45" s="39"/>
+      <c r="S45" s="39"/>
+      <c r="T45" s="39"/>
+      <c r="U45" s="39"/>
     </row>
     <row r="46" spans="3:32" x14ac:dyDescent="0.2">
       <c r="E46" s="9"/>
@@ -3748,26 +3726,26 @@
       <c r="R55" s="14"/>
       <c r="S55" s="14"/>
       <c r="T55" s="14"/>
-      <c r="U55" s="35"/>
+      <c r="U55" s="12"/>
     </row>
     <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E56" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F56" s="13">
-        <f t="shared" ref="F56:I56" si="31">+F54+F55</f>
+        <f t="shared" ref="F56:I56" si="40">+F54+F55</f>
         <v>0</v>
       </c>
       <c r="G56" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="H56" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="I56" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="J56" s="13">
@@ -3775,39 +3753,39 @@
         <v>0</v>
       </c>
       <c r="L56" s="13">
-        <f t="shared" ref="L56:T56" si="32">+L54+L55</f>
+        <f t="shared" ref="L56:T56" si="41">+L54+L55</f>
         <v>0</v>
       </c>
       <c r="M56" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N56" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="O56" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="P56" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Q56" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="R56" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="S56" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="T56" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="U56" s="13"/>
@@ -8706,8 +8684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E628ACCA-55C0-49BE-B8AF-DF2B2BD6A718}">
   <dimension ref="C5:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
